--- a/Element Profiles/IDS Panel-Element_Profile.xlsx
+++ b/Element Profiles/IDS Panel-Element_Profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brad.parker/projects/SystemSurveyor/Element Profiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F5E269-B170-9E48-85E7-EEA21B164577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9704AE-8289-2248-9674-6D99753A71AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="27320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="27320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Element Profiles" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="134">
   <si>
     <t>Export date: Apr 04, 2023</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Accessory 3</t>
   </si>
   <si>
-    <t>1-Year Alarm Panel License</t>
-  </si>
-  <si>
     <t>Accessory 4</t>
   </si>
   <si>
@@ -329,34 +326,13 @@
     <t>Accessory9</t>
   </si>
   <si>
-    <t>LIC-BP-1Y</t>
-  </si>
-  <si>
     <t>Accessory10</t>
-  </si>
-  <si>
-    <t>3-Year Alarm Panel License</t>
-  </si>
-  <si>
-    <t>LIC-BP-3Y</t>
   </si>
   <si>
     <t>Accessory11</t>
   </si>
   <si>
-    <t>5-Year Alarm Panel License</t>
-  </si>
-  <si>
-    <t>LIC-BP-5Y</t>
-  </si>
-  <si>
     <t>Accessory12</t>
-  </si>
-  <si>
-    <t>10-Year Alarm Panel License</t>
-  </si>
-  <si>
-    <t>LIC-BP-10Y</t>
   </si>
   <si>
     <t>Accessory13</t>
@@ -455,13 +431,10 @@
     <t>Accessory21</t>
   </si>
   <si>
-    <t>Accessory22</t>
+    <t>4AH Backup Battery</t>
   </si>
   <si>
-    <t>Accessory23</t>
-  </si>
-  <si>
-    <t>Accessory24</t>
+    <t>ACC–BAT–4AH</t>
   </si>
 </sst>
 </file>
@@ -671,11 +644,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,6 +651,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -993,7 +966,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:SJ47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1008,1015 +983,1015 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="14"/>
-      <c r="BC1" s="14"/>
-      <c r="BD1" s="14"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="14"/>
-      <c r="BG1" s="14"/>
-      <c r="BH1" s="14"/>
-      <c r="BI1" s="14"/>
-      <c r="BJ1" s="14"/>
-      <c r="BK1" s="14"/>
-      <c r="BL1" s="14"/>
-      <c r="BM1" s="14"/>
-      <c r="BN1" s="14"/>
-      <c r="BO1" s="14"/>
-      <c r="BP1" s="14"/>
-      <c r="BQ1" s="14"/>
-      <c r="BR1" s="14"/>
-      <c r="BS1" s="14"/>
-      <c r="BT1" s="14"/>
-      <c r="BU1" s="14"/>
-      <c r="BV1" s="14"/>
-      <c r="BW1" s="14"/>
-      <c r="BX1" s="14"/>
-      <c r="BY1" s="14"/>
-      <c r="BZ1" s="14"/>
-      <c r="CA1" s="14"/>
-      <c r="CB1" s="14"/>
-      <c r="CC1" s="14"/>
-      <c r="CD1" s="14"/>
-      <c r="CE1" s="14"/>
-      <c r="CF1" s="14"/>
-      <c r="CG1" s="14"/>
-      <c r="CH1" s="14"/>
-      <c r="CI1" s="14"/>
-      <c r="CJ1" s="14"/>
-      <c r="CK1" s="14"/>
-      <c r="CL1" s="14"/>
-      <c r="CM1" s="14"/>
-      <c r="CN1" s="14"/>
-      <c r="CO1" s="14"/>
-      <c r="CP1" s="14"/>
-      <c r="CQ1" s="14"/>
-      <c r="CR1" s="14"/>
-      <c r="CS1" s="14"/>
-      <c r="CT1" s="14"/>
-      <c r="CU1" s="14"/>
-      <c r="CV1" s="14"/>
-      <c r="CW1" s="14"/>
-      <c r="CX1" s="14"/>
-      <c r="CY1" s="14"/>
-      <c r="CZ1" s="14"/>
-      <c r="DA1" s="14"/>
-      <c r="DB1" s="14"/>
-      <c r="DC1" s="14"/>
-      <c r="DD1" s="14"/>
-      <c r="DE1" s="14"/>
-      <c r="DF1" s="14"/>
-      <c r="DG1" s="14"/>
-      <c r="DH1" s="14"/>
-      <c r="DI1" s="14"/>
-      <c r="DJ1" s="14"/>
-      <c r="DK1" s="14"/>
-      <c r="DL1" s="14"/>
-      <c r="DM1" s="14"/>
-      <c r="DN1" s="14"/>
-      <c r="DO1" s="14"/>
-      <c r="DP1" s="14"/>
-      <c r="DQ1" s="14"/>
-      <c r="DR1" s="14"/>
-      <c r="DS1" s="14"/>
-      <c r="DT1" s="14"/>
-      <c r="DU1" s="14"/>
-      <c r="DV1" s="14"/>
-      <c r="DW1" s="14"/>
-      <c r="DX1" s="14"/>
-      <c r="DY1" s="14"/>
-      <c r="DZ1" s="14"/>
-      <c r="EA1" s="14"/>
-      <c r="EB1" s="14"/>
-      <c r="EC1" s="14"/>
-      <c r="ED1" s="14"/>
-      <c r="EE1" s="14"/>
-      <c r="EF1" s="14"/>
-      <c r="EG1" s="14"/>
-      <c r="EH1" s="14"/>
-      <c r="EI1" s="14"/>
-      <c r="EJ1" s="14"/>
-      <c r="EK1" s="14"/>
-      <c r="EL1" s="14"/>
-      <c r="EM1" s="14"/>
-      <c r="EN1" s="14"/>
-      <c r="EO1" s="14"/>
-      <c r="EP1" s="14"/>
-      <c r="EQ1" s="14"/>
-      <c r="ER1" s="14"/>
-      <c r="ES1" s="14"/>
-      <c r="ET1" s="14"/>
-      <c r="EU1" s="14"/>
-      <c r="EV1" s="14"/>
-      <c r="EW1" s="14"/>
-      <c r="EX1" s="14"/>
-      <c r="EY1" s="14"/>
-      <c r="EZ1" s="14"/>
-      <c r="FA1" s="14"/>
-      <c r="FB1" s="14"/>
-      <c r="FC1" s="14"/>
-      <c r="FD1" s="14"/>
-      <c r="FE1" s="14"/>
-      <c r="FF1" s="14"/>
-      <c r="FG1" s="14"/>
-      <c r="FH1" s="14"/>
-      <c r="FI1" s="14"/>
-      <c r="FJ1" s="14"/>
-      <c r="FK1" s="14"/>
-      <c r="FL1" s="14"/>
-      <c r="FM1" s="14"/>
-      <c r="FN1" s="14"/>
-      <c r="FO1" s="14"/>
-      <c r="FP1" s="14"/>
-      <c r="FQ1" s="14"/>
-      <c r="FR1" s="14"/>
-      <c r="FS1" s="14"/>
-      <c r="FT1" s="14"/>
-      <c r="FU1" s="14"/>
-      <c r="FV1" s="14"/>
-      <c r="FW1" s="14"/>
-      <c r="FX1" s="14"/>
-      <c r="FY1" s="14"/>
-      <c r="FZ1" s="14"/>
-      <c r="GA1" s="14"/>
-      <c r="GB1" s="14"/>
-      <c r="GC1" s="14"/>
-      <c r="GD1" s="14"/>
-      <c r="GE1" s="14"/>
-      <c r="GF1" s="14"/>
-      <c r="GG1" s="14"/>
-      <c r="GH1" s="14"/>
-      <c r="GI1" s="14"/>
-      <c r="GJ1" s="14"/>
-      <c r="GK1" s="14"/>
-      <c r="GL1" s="14"/>
-      <c r="GM1" s="14"/>
-      <c r="GN1" s="14"/>
-      <c r="GO1" s="14"/>
-      <c r="GP1" s="14"/>
-      <c r="GQ1" s="14"/>
-      <c r="GR1" s="14"/>
-      <c r="GS1" s="14"/>
-      <c r="GT1" s="14"/>
-      <c r="GU1" s="14"/>
-      <c r="GV1" s="14"/>
-      <c r="GW1" s="14"/>
-      <c r="GX1" s="14"/>
-      <c r="GY1" s="14"/>
-      <c r="GZ1" s="14"/>
-      <c r="HA1" s="14"/>
-      <c r="HB1" s="14"/>
-      <c r="HC1" s="14"/>
-      <c r="HD1" s="14"/>
-      <c r="HE1" s="14"/>
-      <c r="HF1" s="14"/>
-      <c r="HG1" s="14"/>
-      <c r="HH1" s="14"/>
-      <c r="HI1" s="14"/>
-      <c r="HJ1" s="14"/>
-      <c r="HK1" s="14"/>
-      <c r="HL1" s="14"/>
-      <c r="HM1" s="14"/>
-      <c r="HN1" s="14"/>
-      <c r="HO1" s="14"/>
-      <c r="HP1" s="14"/>
-      <c r="HQ1" s="14"/>
-      <c r="HR1" s="14"/>
-      <c r="HS1" s="14"/>
-      <c r="HT1" s="14"/>
-      <c r="HU1" s="14"/>
-      <c r="HV1" s="14"/>
-      <c r="HW1" s="14"/>
-      <c r="HX1" s="14"/>
-      <c r="HY1" s="14"/>
-      <c r="HZ1" s="14"/>
-      <c r="IA1" s="14"/>
-      <c r="IB1" s="14"/>
-      <c r="IC1" s="14"/>
-      <c r="ID1" s="14"/>
-      <c r="IE1" s="14"/>
-      <c r="IF1" s="14"/>
-      <c r="IG1" s="14"/>
-      <c r="IH1" s="14"/>
-      <c r="II1" s="14"/>
-      <c r="IJ1" s="14"/>
-      <c r="IK1" s="14"/>
-      <c r="IL1" s="14"/>
-      <c r="IM1" s="14"/>
-      <c r="IN1" s="14"/>
-      <c r="IO1" s="14"/>
-      <c r="IP1" s="14"/>
-      <c r="IQ1" s="14"/>
-      <c r="IR1" s="14"/>
-      <c r="IS1" s="14"/>
-      <c r="IT1" s="14"/>
-      <c r="IU1" s="14"/>
-      <c r="IV1" s="14"/>
-      <c r="IW1" s="14"/>
-      <c r="IX1" s="14"/>
-      <c r="IY1" s="14"/>
-      <c r="IZ1" s="14"/>
-      <c r="JA1" s="14"/>
-      <c r="JB1" s="14"/>
-      <c r="JC1" s="14"/>
-      <c r="JD1" s="14"/>
-      <c r="JE1" s="14"/>
-      <c r="JF1" s="14"/>
-      <c r="JG1" s="14"/>
-      <c r="JH1" s="14"/>
-      <c r="JI1" s="14"/>
-      <c r="JJ1" s="14"/>
-      <c r="JK1" s="14"/>
-      <c r="JL1" s="14"/>
-      <c r="JM1" s="14"/>
-      <c r="JN1" s="14"/>
-      <c r="JO1" s="14"/>
-      <c r="JP1" s="14"/>
-      <c r="JQ1" s="14"/>
-      <c r="JR1" s="14"/>
-      <c r="JS1" s="14"/>
-      <c r="JT1" s="14"/>
-      <c r="JU1" s="14"/>
-      <c r="JV1" s="14"/>
-      <c r="JW1" s="14"/>
-      <c r="JX1" s="14"/>
-      <c r="JY1" s="14"/>
-      <c r="JZ1" s="14"/>
-      <c r="KA1" s="14"/>
-      <c r="KB1" s="14"/>
-      <c r="KC1" s="14"/>
-      <c r="KD1" s="14"/>
-      <c r="KE1" s="14"/>
-      <c r="KF1" s="14"/>
-      <c r="KG1" s="14"/>
-      <c r="KH1" s="14"/>
-      <c r="KI1" s="14"/>
-      <c r="KJ1" s="14"/>
-      <c r="KK1" s="14"/>
-      <c r="KL1" s="14"/>
-      <c r="KM1" s="14"/>
-      <c r="KN1" s="14"/>
-      <c r="KO1" s="14"/>
-      <c r="KP1" s="14"/>
-      <c r="KQ1" s="14"/>
-      <c r="KR1" s="14"/>
-      <c r="KS1" s="14"/>
-      <c r="KT1" s="14"/>
-      <c r="KU1" s="14"/>
-      <c r="KV1" s="14"/>
-      <c r="KW1" s="14"/>
-      <c r="KX1" s="14"/>
-      <c r="KY1" s="14"/>
-      <c r="KZ1" s="14"/>
-      <c r="LA1" s="14"/>
-      <c r="LB1" s="14"/>
-      <c r="LC1" s="14"/>
-      <c r="LD1" s="14"/>
-      <c r="LE1" s="14"/>
-      <c r="LF1" s="14"/>
-      <c r="LG1" s="14"/>
-      <c r="LH1" s="14"/>
-      <c r="LI1" s="14"/>
-      <c r="LJ1" s="14"/>
-      <c r="LK1" s="14"/>
-      <c r="LL1" s="14"/>
-      <c r="LM1" s="14"/>
-      <c r="LN1" s="14"/>
-      <c r="LO1" s="14"/>
-      <c r="LP1" s="14"/>
-      <c r="LQ1" s="14"/>
-      <c r="LR1" s="14"/>
-      <c r="LS1" s="14"/>
-      <c r="LT1" s="14"/>
-      <c r="LU1" s="14"/>
-      <c r="LV1" s="14"/>
-      <c r="LW1" s="14"/>
-      <c r="LX1" s="14"/>
-      <c r="LY1" s="14"/>
-      <c r="LZ1" s="14"/>
-      <c r="MA1" s="14"/>
-      <c r="MB1" s="14"/>
-      <c r="MC1" s="14"/>
-      <c r="MD1" s="14"/>
-      <c r="ME1" s="14"/>
-      <c r="MF1" s="14"/>
-      <c r="MG1" s="14"/>
-      <c r="MH1" s="14"/>
-      <c r="MI1" s="14"/>
-      <c r="MJ1" s="14"/>
-      <c r="MK1" s="14"/>
-      <c r="ML1" s="14"/>
-      <c r="MM1" s="14"/>
-      <c r="MN1" s="14"/>
-      <c r="MO1" s="14"/>
-      <c r="MP1" s="14"/>
-      <c r="MQ1" s="14"/>
-      <c r="MR1" s="14"/>
-      <c r="MS1" s="14"/>
-      <c r="MT1" s="14"/>
-      <c r="MU1" s="14"/>
-      <c r="MV1" s="14"/>
-      <c r="MW1" s="14"/>
-      <c r="MX1" s="14"/>
-      <c r="MY1" s="14"/>
-      <c r="MZ1" s="14"/>
-      <c r="NA1" s="14"/>
-      <c r="NB1" s="14"/>
-      <c r="NC1" s="14"/>
-      <c r="ND1" s="14"/>
-      <c r="NE1" s="14"/>
-      <c r="NF1" s="14"/>
-      <c r="NG1" s="14"/>
-      <c r="NH1" s="14"/>
-      <c r="NI1" s="14"/>
-      <c r="NJ1" s="14"/>
-      <c r="NK1" s="14"/>
-      <c r="NL1" s="14"/>
-      <c r="NM1" s="14"/>
-      <c r="NN1" s="14"/>
-      <c r="NO1" s="14"/>
-      <c r="NP1" s="14"/>
-      <c r="NQ1" s="14"/>
-      <c r="NR1" s="14"/>
-      <c r="NS1" s="14"/>
-      <c r="NT1" s="14"/>
-      <c r="NU1" s="14"/>
-      <c r="NV1" s="14"/>
-      <c r="NW1" s="14"/>
-      <c r="NX1" s="14"/>
-      <c r="NY1" s="14"/>
-      <c r="NZ1" s="14"/>
-      <c r="OA1" s="14"/>
-      <c r="OB1" s="14"/>
-      <c r="OC1" s="14"/>
-      <c r="OD1" s="14"/>
-      <c r="OE1" s="14"/>
-      <c r="OF1" s="14"/>
-      <c r="OG1" s="14"/>
-      <c r="OH1" s="14"/>
-      <c r="OI1" s="14"/>
-      <c r="OJ1" s="14"/>
-      <c r="OK1" s="14"/>
-      <c r="OL1" s="14"/>
-      <c r="OM1" s="14"/>
-      <c r="ON1" s="14"/>
-      <c r="OO1" s="14"/>
-      <c r="OP1" s="14"/>
-      <c r="OQ1" s="14"/>
-      <c r="OR1" s="14"/>
-      <c r="OS1" s="14"/>
-      <c r="OT1" s="14"/>
-      <c r="OU1" s="14"/>
-      <c r="OV1" s="14"/>
-      <c r="OW1" s="14"/>
-      <c r="OX1" s="14"/>
-      <c r="OY1" s="14"/>
-      <c r="OZ1" s="14"/>
-      <c r="PA1" s="14"/>
-      <c r="PB1" s="14"/>
-      <c r="PC1" s="14"/>
-      <c r="PD1" s="14"/>
-      <c r="PE1" s="14"/>
-      <c r="PF1" s="14"/>
-      <c r="PG1" s="14"/>
-      <c r="PH1" s="14"/>
-      <c r="PI1" s="14"/>
-      <c r="PJ1" s="14"/>
-      <c r="PK1" s="14"/>
-      <c r="PL1" s="14"/>
-      <c r="PM1" s="14"/>
-      <c r="PN1" s="14"/>
-      <c r="PO1" s="14"/>
-      <c r="PP1" s="14"/>
-      <c r="PQ1" s="14"/>
-      <c r="PR1" s="14"/>
-      <c r="PS1" s="14"/>
-      <c r="PT1" s="14"/>
-      <c r="PU1" s="14"/>
-      <c r="PV1" s="14"/>
-      <c r="PW1" s="14"/>
-      <c r="PX1" s="14"/>
-      <c r="PY1" s="14"/>
-      <c r="PZ1" s="14"/>
-      <c r="QA1" s="14"/>
-      <c r="QB1" s="14"/>
-      <c r="QC1" s="14"/>
-      <c r="QD1" s="14"/>
-      <c r="QE1" s="14"/>
-      <c r="QF1" s="14"/>
-      <c r="QG1" s="14"/>
-      <c r="QH1" s="14"/>
-      <c r="QI1" s="14"/>
-      <c r="QJ1" s="14"/>
-      <c r="QK1" s="14"/>
-      <c r="QL1" s="14"/>
-      <c r="QM1" s="14"/>
-      <c r="QN1" s="14"/>
-      <c r="QO1" s="14"/>
-      <c r="QP1" s="14"/>
-      <c r="QQ1" s="14"/>
-      <c r="QR1" s="14"/>
-      <c r="QS1" s="14"/>
-      <c r="QT1" s="14"/>
-      <c r="QU1" s="14"/>
-      <c r="QV1" s="14"/>
-      <c r="QW1" s="14"/>
-      <c r="QX1" s="14"/>
-      <c r="QY1" s="14"/>
-      <c r="QZ1" s="14"/>
-      <c r="RA1" s="14"/>
-      <c r="RB1" s="14"/>
-      <c r="RC1" s="14"/>
-      <c r="RD1" s="14"/>
-      <c r="RE1" s="14"/>
-      <c r="RF1" s="14"/>
-      <c r="RG1" s="14"/>
-      <c r="RH1" s="14"/>
-      <c r="RI1" s="14"/>
-      <c r="RJ1" s="14"/>
-      <c r="RK1" s="14"/>
-      <c r="RL1" s="14"/>
-      <c r="RM1" s="14"/>
-      <c r="RN1" s="14"/>
-      <c r="RO1" s="14"/>
-      <c r="RP1" s="14"/>
-      <c r="RQ1" s="14"/>
-      <c r="RR1" s="14"/>
-      <c r="RS1" s="14"/>
-      <c r="RT1" s="14"/>
-      <c r="RU1" s="14"/>
-      <c r="RV1" s="14"/>
-      <c r="RW1" s="14"/>
-      <c r="RX1" s="14"/>
-      <c r="RY1" s="14"/>
-      <c r="RZ1" s="14"/>
-      <c r="SA1" s="14"/>
-      <c r="SB1" s="14"/>
-      <c r="SC1" s="14"/>
-      <c r="SD1" s="14"/>
-      <c r="SE1" s="14"/>
-      <c r="SF1" s="14"/>
-      <c r="SG1" s="14"/>
-      <c r="SH1" s="14"/>
-      <c r="SI1" s="14"/>
-      <c r="SJ1" s="15"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="17"/>
+      <c r="BL1" s="17"/>
+      <c r="BM1" s="17"/>
+      <c r="BN1" s="17"/>
+      <c r="BO1" s="17"/>
+      <c r="BP1" s="17"/>
+      <c r="BQ1" s="17"/>
+      <c r="BR1" s="17"/>
+      <c r="BS1" s="17"/>
+      <c r="BT1" s="17"/>
+      <c r="BU1" s="17"/>
+      <c r="BV1" s="17"/>
+      <c r="BW1" s="17"/>
+      <c r="BX1" s="17"/>
+      <c r="BY1" s="17"/>
+      <c r="BZ1" s="17"/>
+      <c r="CA1" s="17"/>
+      <c r="CB1" s="17"/>
+      <c r="CC1" s="17"/>
+      <c r="CD1" s="17"/>
+      <c r="CE1" s="17"/>
+      <c r="CF1" s="17"/>
+      <c r="CG1" s="17"/>
+      <c r="CH1" s="17"/>
+      <c r="CI1" s="17"/>
+      <c r="CJ1" s="17"/>
+      <c r="CK1" s="17"/>
+      <c r="CL1" s="17"/>
+      <c r="CM1" s="17"/>
+      <c r="CN1" s="17"/>
+      <c r="CO1" s="17"/>
+      <c r="CP1" s="17"/>
+      <c r="CQ1" s="17"/>
+      <c r="CR1" s="17"/>
+      <c r="CS1" s="17"/>
+      <c r="CT1" s="17"/>
+      <c r="CU1" s="17"/>
+      <c r="CV1" s="17"/>
+      <c r="CW1" s="17"/>
+      <c r="CX1" s="17"/>
+      <c r="CY1" s="17"/>
+      <c r="CZ1" s="17"/>
+      <c r="DA1" s="17"/>
+      <c r="DB1" s="17"/>
+      <c r="DC1" s="17"/>
+      <c r="DD1" s="17"/>
+      <c r="DE1" s="17"/>
+      <c r="DF1" s="17"/>
+      <c r="DG1" s="17"/>
+      <c r="DH1" s="17"/>
+      <c r="DI1" s="17"/>
+      <c r="DJ1" s="17"/>
+      <c r="DK1" s="17"/>
+      <c r="DL1" s="17"/>
+      <c r="DM1" s="17"/>
+      <c r="DN1" s="17"/>
+      <c r="DO1" s="17"/>
+      <c r="DP1" s="17"/>
+      <c r="DQ1" s="17"/>
+      <c r="DR1" s="17"/>
+      <c r="DS1" s="17"/>
+      <c r="DT1" s="17"/>
+      <c r="DU1" s="17"/>
+      <c r="DV1" s="17"/>
+      <c r="DW1" s="17"/>
+      <c r="DX1" s="17"/>
+      <c r="DY1" s="17"/>
+      <c r="DZ1" s="17"/>
+      <c r="EA1" s="17"/>
+      <c r="EB1" s="17"/>
+      <c r="EC1" s="17"/>
+      <c r="ED1" s="17"/>
+      <c r="EE1" s="17"/>
+      <c r="EF1" s="17"/>
+      <c r="EG1" s="17"/>
+      <c r="EH1" s="17"/>
+      <c r="EI1" s="17"/>
+      <c r="EJ1" s="17"/>
+      <c r="EK1" s="17"/>
+      <c r="EL1" s="17"/>
+      <c r="EM1" s="17"/>
+      <c r="EN1" s="17"/>
+      <c r="EO1" s="17"/>
+      <c r="EP1" s="17"/>
+      <c r="EQ1" s="17"/>
+      <c r="ER1" s="17"/>
+      <c r="ES1" s="17"/>
+      <c r="ET1" s="17"/>
+      <c r="EU1" s="17"/>
+      <c r="EV1" s="17"/>
+      <c r="EW1" s="17"/>
+      <c r="EX1" s="17"/>
+      <c r="EY1" s="17"/>
+      <c r="EZ1" s="17"/>
+      <c r="FA1" s="17"/>
+      <c r="FB1" s="17"/>
+      <c r="FC1" s="17"/>
+      <c r="FD1" s="17"/>
+      <c r="FE1" s="17"/>
+      <c r="FF1" s="17"/>
+      <c r="FG1" s="17"/>
+      <c r="FH1" s="17"/>
+      <c r="FI1" s="17"/>
+      <c r="FJ1" s="17"/>
+      <c r="FK1" s="17"/>
+      <c r="FL1" s="17"/>
+      <c r="FM1" s="17"/>
+      <c r="FN1" s="17"/>
+      <c r="FO1" s="17"/>
+      <c r="FP1" s="17"/>
+      <c r="FQ1" s="17"/>
+      <c r="FR1" s="17"/>
+      <c r="FS1" s="17"/>
+      <c r="FT1" s="17"/>
+      <c r="FU1" s="17"/>
+      <c r="FV1" s="17"/>
+      <c r="FW1" s="17"/>
+      <c r="FX1" s="17"/>
+      <c r="FY1" s="17"/>
+      <c r="FZ1" s="17"/>
+      <c r="GA1" s="17"/>
+      <c r="GB1" s="17"/>
+      <c r="GC1" s="17"/>
+      <c r="GD1" s="17"/>
+      <c r="GE1" s="17"/>
+      <c r="GF1" s="17"/>
+      <c r="GG1" s="17"/>
+      <c r="GH1" s="17"/>
+      <c r="GI1" s="17"/>
+      <c r="GJ1" s="17"/>
+      <c r="GK1" s="17"/>
+      <c r="GL1" s="17"/>
+      <c r="GM1" s="17"/>
+      <c r="GN1" s="17"/>
+      <c r="GO1" s="17"/>
+      <c r="GP1" s="17"/>
+      <c r="GQ1" s="17"/>
+      <c r="GR1" s="17"/>
+      <c r="GS1" s="17"/>
+      <c r="GT1" s="17"/>
+      <c r="GU1" s="17"/>
+      <c r="GV1" s="17"/>
+      <c r="GW1" s="17"/>
+      <c r="GX1" s="17"/>
+      <c r="GY1" s="17"/>
+      <c r="GZ1" s="17"/>
+      <c r="HA1" s="17"/>
+      <c r="HB1" s="17"/>
+      <c r="HC1" s="17"/>
+      <c r="HD1" s="17"/>
+      <c r="HE1" s="17"/>
+      <c r="HF1" s="17"/>
+      <c r="HG1" s="17"/>
+      <c r="HH1" s="17"/>
+      <c r="HI1" s="17"/>
+      <c r="HJ1" s="17"/>
+      <c r="HK1" s="17"/>
+      <c r="HL1" s="17"/>
+      <c r="HM1" s="17"/>
+      <c r="HN1" s="17"/>
+      <c r="HO1" s="17"/>
+      <c r="HP1" s="17"/>
+      <c r="HQ1" s="17"/>
+      <c r="HR1" s="17"/>
+      <c r="HS1" s="17"/>
+      <c r="HT1" s="17"/>
+      <c r="HU1" s="17"/>
+      <c r="HV1" s="17"/>
+      <c r="HW1" s="17"/>
+      <c r="HX1" s="17"/>
+      <c r="HY1" s="17"/>
+      <c r="HZ1" s="17"/>
+      <c r="IA1" s="17"/>
+      <c r="IB1" s="17"/>
+      <c r="IC1" s="17"/>
+      <c r="ID1" s="17"/>
+      <c r="IE1" s="17"/>
+      <c r="IF1" s="17"/>
+      <c r="IG1" s="17"/>
+      <c r="IH1" s="17"/>
+      <c r="II1" s="17"/>
+      <c r="IJ1" s="17"/>
+      <c r="IK1" s="17"/>
+      <c r="IL1" s="17"/>
+      <c r="IM1" s="17"/>
+      <c r="IN1" s="17"/>
+      <c r="IO1" s="17"/>
+      <c r="IP1" s="17"/>
+      <c r="IQ1" s="17"/>
+      <c r="IR1" s="17"/>
+      <c r="IS1" s="17"/>
+      <c r="IT1" s="17"/>
+      <c r="IU1" s="17"/>
+      <c r="IV1" s="17"/>
+      <c r="IW1" s="17"/>
+      <c r="IX1" s="17"/>
+      <c r="IY1" s="17"/>
+      <c r="IZ1" s="17"/>
+      <c r="JA1" s="17"/>
+      <c r="JB1" s="17"/>
+      <c r="JC1" s="17"/>
+      <c r="JD1" s="17"/>
+      <c r="JE1" s="17"/>
+      <c r="JF1" s="17"/>
+      <c r="JG1" s="17"/>
+      <c r="JH1" s="17"/>
+      <c r="JI1" s="17"/>
+      <c r="JJ1" s="17"/>
+      <c r="JK1" s="17"/>
+      <c r="JL1" s="17"/>
+      <c r="JM1" s="17"/>
+      <c r="JN1" s="17"/>
+      <c r="JO1" s="17"/>
+      <c r="JP1" s="17"/>
+      <c r="JQ1" s="17"/>
+      <c r="JR1" s="17"/>
+      <c r="JS1" s="17"/>
+      <c r="JT1" s="17"/>
+      <c r="JU1" s="17"/>
+      <c r="JV1" s="17"/>
+      <c r="JW1" s="17"/>
+      <c r="JX1" s="17"/>
+      <c r="JY1" s="17"/>
+      <c r="JZ1" s="17"/>
+      <c r="KA1" s="17"/>
+      <c r="KB1" s="17"/>
+      <c r="KC1" s="17"/>
+      <c r="KD1" s="17"/>
+      <c r="KE1" s="17"/>
+      <c r="KF1" s="17"/>
+      <c r="KG1" s="17"/>
+      <c r="KH1" s="17"/>
+      <c r="KI1" s="17"/>
+      <c r="KJ1" s="17"/>
+      <c r="KK1" s="17"/>
+      <c r="KL1" s="17"/>
+      <c r="KM1" s="17"/>
+      <c r="KN1" s="17"/>
+      <c r="KO1" s="17"/>
+      <c r="KP1" s="17"/>
+      <c r="KQ1" s="17"/>
+      <c r="KR1" s="17"/>
+      <c r="KS1" s="17"/>
+      <c r="KT1" s="17"/>
+      <c r="KU1" s="17"/>
+      <c r="KV1" s="17"/>
+      <c r="KW1" s="17"/>
+      <c r="KX1" s="17"/>
+      <c r="KY1" s="17"/>
+      <c r="KZ1" s="17"/>
+      <c r="LA1" s="17"/>
+      <c r="LB1" s="17"/>
+      <c r="LC1" s="17"/>
+      <c r="LD1" s="17"/>
+      <c r="LE1" s="17"/>
+      <c r="LF1" s="17"/>
+      <c r="LG1" s="17"/>
+      <c r="LH1" s="17"/>
+      <c r="LI1" s="17"/>
+      <c r="LJ1" s="17"/>
+      <c r="LK1" s="17"/>
+      <c r="LL1" s="17"/>
+      <c r="LM1" s="17"/>
+      <c r="LN1" s="17"/>
+      <c r="LO1" s="17"/>
+      <c r="LP1" s="17"/>
+      <c r="LQ1" s="17"/>
+      <c r="LR1" s="17"/>
+      <c r="LS1" s="17"/>
+      <c r="LT1" s="17"/>
+      <c r="LU1" s="17"/>
+      <c r="LV1" s="17"/>
+      <c r="LW1" s="17"/>
+      <c r="LX1" s="17"/>
+      <c r="LY1" s="17"/>
+      <c r="LZ1" s="17"/>
+      <c r="MA1" s="17"/>
+      <c r="MB1" s="17"/>
+      <c r="MC1" s="17"/>
+      <c r="MD1" s="17"/>
+      <c r="ME1" s="17"/>
+      <c r="MF1" s="17"/>
+      <c r="MG1" s="17"/>
+      <c r="MH1" s="17"/>
+      <c r="MI1" s="17"/>
+      <c r="MJ1" s="17"/>
+      <c r="MK1" s="17"/>
+      <c r="ML1" s="17"/>
+      <c r="MM1" s="17"/>
+      <c r="MN1" s="17"/>
+      <c r="MO1" s="17"/>
+      <c r="MP1" s="17"/>
+      <c r="MQ1" s="17"/>
+      <c r="MR1" s="17"/>
+      <c r="MS1" s="17"/>
+      <c r="MT1" s="17"/>
+      <c r="MU1" s="17"/>
+      <c r="MV1" s="17"/>
+      <c r="MW1" s="17"/>
+      <c r="MX1" s="17"/>
+      <c r="MY1" s="17"/>
+      <c r="MZ1" s="17"/>
+      <c r="NA1" s="17"/>
+      <c r="NB1" s="17"/>
+      <c r="NC1" s="17"/>
+      <c r="ND1" s="17"/>
+      <c r="NE1" s="17"/>
+      <c r="NF1" s="17"/>
+      <c r="NG1" s="17"/>
+      <c r="NH1" s="17"/>
+      <c r="NI1" s="17"/>
+      <c r="NJ1" s="17"/>
+      <c r="NK1" s="17"/>
+      <c r="NL1" s="17"/>
+      <c r="NM1" s="17"/>
+      <c r="NN1" s="17"/>
+      <c r="NO1" s="17"/>
+      <c r="NP1" s="17"/>
+      <c r="NQ1" s="17"/>
+      <c r="NR1" s="17"/>
+      <c r="NS1" s="17"/>
+      <c r="NT1" s="17"/>
+      <c r="NU1" s="17"/>
+      <c r="NV1" s="17"/>
+      <c r="NW1" s="17"/>
+      <c r="NX1" s="17"/>
+      <c r="NY1" s="17"/>
+      <c r="NZ1" s="17"/>
+      <c r="OA1" s="17"/>
+      <c r="OB1" s="17"/>
+      <c r="OC1" s="17"/>
+      <c r="OD1" s="17"/>
+      <c r="OE1" s="17"/>
+      <c r="OF1" s="17"/>
+      <c r="OG1" s="17"/>
+      <c r="OH1" s="17"/>
+      <c r="OI1" s="17"/>
+      <c r="OJ1" s="17"/>
+      <c r="OK1" s="17"/>
+      <c r="OL1" s="17"/>
+      <c r="OM1" s="17"/>
+      <c r="ON1" s="17"/>
+      <c r="OO1" s="17"/>
+      <c r="OP1" s="17"/>
+      <c r="OQ1" s="17"/>
+      <c r="OR1" s="17"/>
+      <c r="OS1" s="17"/>
+      <c r="OT1" s="17"/>
+      <c r="OU1" s="17"/>
+      <c r="OV1" s="17"/>
+      <c r="OW1" s="17"/>
+      <c r="OX1" s="17"/>
+      <c r="OY1" s="17"/>
+      <c r="OZ1" s="17"/>
+      <c r="PA1" s="17"/>
+      <c r="PB1" s="17"/>
+      <c r="PC1" s="17"/>
+      <c r="PD1" s="17"/>
+      <c r="PE1" s="17"/>
+      <c r="PF1" s="17"/>
+      <c r="PG1" s="17"/>
+      <c r="PH1" s="17"/>
+      <c r="PI1" s="17"/>
+      <c r="PJ1" s="17"/>
+      <c r="PK1" s="17"/>
+      <c r="PL1" s="17"/>
+      <c r="PM1" s="17"/>
+      <c r="PN1" s="17"/>
+      <c r="PO1" s="17"/>
+      <c r="PP1" s="17"/>
+      <c r="PQ1" s="17"/>
+      <c r="PR1" s="17"/>
+      <c r="PS1" s="17"/>
+      <c r="PT1" s="17"/>
+      <c r="PU1" s="17"/>
+      <c r="PV1" s="17"/>
+      <c r="PW1" s="17"/>
+      <c r="PX1" s="17"/>
+      <c r="PY1" s="17"/>
+      <c r="PZ1" s="17"/>
+      <c r="QA1" s="17"/>
+      <c r="QB1" s="17"/>
+      <c r="QC1" s="17"/>
+      <c r="QD1" s="17"/>
+      <c r="QE1" s="17"/>
+      <c r="QF1" s="17"/>
+      <c r="QG1" s="17"/>
+      <c r="QH1" s="17"/>
+      <c r="QI1" s="17"/>
+      <c r="QJ1" s="17"/>
+      <c r="QK1" s="17"/>
+      <c r="QL1" s="17"/>
+      <c r="QM1" s="17"/>
+      <c r="QN1" s="17"/>
+      <c r="QO1" s="17"/>
+      <c r="QP1" s="17"/>
+      <c r="QQ1" s="17"/>
+      <c r="QR1" s="17"/>
+      <c r="QS1" s="17"/>
+      <c r="QT1" s="17"/>
+      <c r="QU1" s="17"/>
+      <c r="QV1" s="17"/>
+      <c r="QW1" s="17"/>
+      <c r="QX1" s="17"/>
+      <c r="QY1" s="17"/>
+      <c r="QZ1" s="17"/>
+      <c r="RA1" s="17"/>
+      <c r="RB1" s="17"/>
+      <c r="RC1" s="17"/>
+      <c r="RD1" s="17"/>
+      <c r="RE1" s="17"/>
+      <c r="RF1" s="17"/>
+      <c r="RG1" s="17"/>
+      <c r="RH1" s="17"/>
+      <c r="RI1" s="17"/>
+      <c r="RJ1" s="17"/>
+      <c r="RK1" s="17"/>
+      <c r="RL1" s="17"/>
+      <c r="RM1" s="17"/>
+      <c r="RN1" s="17"/>
+      <c r="RO1" s="17"/>
+      <c r="RP1" s="17"/>
+      <c r="RQ1" s="17"/>
+      <c r="RR1" s="17"/>
+      <c r="RS1" s="17"/>
+      <c r="RT1" s="17"/>
+      <c r="RU1" s="17"/>
+      <c r="RV1" s="17"/>
+      <c r="RW1" s="17"/>
+      <c r="RX1" s="17"/>
+      <c r="RY1" s="17"/>
+      <c r="RZ1" s="17"/>
+      <c r="SA1" s="17"/>
+      <c r="SB1" s="17"/>
+      <c r="SC1" s="17"/>
+      <c r="SD1" s="17"/>
+      <c r="SE1" s="17"/>
+      <c r="SF1" s="17"/>
+      <c r="SG1" s="17"/>
+      <c r="SH1" s="17"/>
+      <c r="SI1" s="17"/>
+      <c r="SJ1" s="18"/>
     </row>
     <row r="2" spans="3:504" ht="200" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="2"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
-      <c r="BD2" s="14"/>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="14"/>
-      <c r="BH2" s="14"/>
-      <c r="BI2" s="14"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14"/>
-      <c r="BQ2" s="14"/>
-      <c r="BR2" s="14"/>
-      <c r="BS2" s="14"/>
-      <c r="BT2" s="14"/>
-      <c r="BU2" s="14"/>
-      <c r="BV2" s="14"/>
-      <c r="BW2" s="14"/>
-      <c r="BX2" s="14"/>
-      <c r="BY2" s="14"/>
-      <c r="BZ2" s="14"/>
-      <c r="CA2" s="14"/>
-      <c r="CB2" s="14"/>
-      <c r="CC2" s="14"/>
-      <c r="CD2" s="14"/>
-      <c r="CE2" s="14"/>
-      <c r="CF2" s="14"/>
-      <c r="CG2" s="14"/>
-      <c r="CH2" s="14"/>
-      <c r="CI2" s="14"/>
-      <c r="CJ2" s="14"/>
-      <c r="CK2" s="14"/>
-      <c r="CL2" s="14"/>
-      <c r="CM2" s="14"/>
-      <c r="CN2" s="14"/>
-      <c r="CO2" s="14"/>
-      <c r="CP2" s="14"/>
-      <c r="CQ2" s="14"/>
-      <c r="CR2" s="14"/>
-      <c r="CS2" s="14"/>
-      <c r="CT2" s="14"/>
-      <c r="CU2" s="14"/>
-      <c r="CV2" s="14"/>
-      <c r="CW2" s="14"/>
-      <c r="CX2" s="14"/>
-      <c r="CY2" s="14"/>
-      <c r="CZ2" s="14"/>
-      <c r="DA2" s="14"/>
-      <c r="DB2" s="14"/>
-      <c r="DC2" s="14"/>
-      <c r="DD2" s="14"/>
-      <c r="DE2" s="14"/>
-      <c r="DF2" s="14"/>
-      <c r="DG2" s="14"/>
-      <c r="DH2" s="14"/>
-      <c r="DI2" s="14"/>
-      <c r="DJ2" s="14"/>
-      <c r="DK2" s="14"/>
-      <c r="DL2" s="14"/>
-      <c r="DM2" s="14"/>
-      <c r="DN2" s="14"/>
-      <c r="DO2" s="14"/>
-      <c r="DP2" s="14"/>
-      <c r="DQ2" s="14"/>
-      <c r="DR2" s="14"/>
-      <c r="DS2" s="14"/>
-      <c r="DT2" s="14"/>
-      <c r="DU2" s="14"/>
-      <c r="DV2" s="14"/>
-      <c r="DW2" s="14"/>
-      <c r="DX2" s="14"/>
-      <c r="DY2" s="14"/>
-      <c r="DZ2" s="14"/>
-      <c r="EA2" s="14"/>
-      <c r="EB2" s="14"/>
-      <c r="EC2" s="14"/>
-      <c r="ED2" s="14"/>
-      <c r="EE2" s="14"/>
-      <c r="EF2" s="14"/>
-      <c r="EG2" s="14"/>
-      <c r="EH2" s="14"/>
-      <c r="EI2" s="14"/>
-      <c r="EJ2" s="14"/>
-      <c r="EK2" s="14"/>
-      <c r="EL2" s="14"/>
-      <c r="EM2" s="14"/>
-      <c r="EN2" s="14"/>
-      <c r="EO2" s="14"/>
-      <c r="EP2" s="14"/>
-      <c r="EQ2" s="14"/>
-      <c r="ER2" s="14"/>
-      <c r="ES2" s="14"/>
-      <c r="ET2" s="14"/>
-      <c r="EU2" s="14"/>
-      <c r="EV2" s="14"/>
-      <c r="EW2" s="14"/>
-      <c r="EX2" s="14"/>
-      <c r="EY2" s="14"/>
-      <c r="EZ2" s="14"/>
-      <c r="FA2" s="14"/>
-      <c r="FB2" s="14"/>
-      <c r="FC2" s="14"/>
-      <c r="FD2" s="14"/>
-      <c r="FE2" s="14"/>
-      <c r="FF2" s="14"/>
-      <c r="FG2" s="14"/>
-      <c r="FH2" s="14"/>
-      <c r="FI2" s="14"/>
-      <c r="FJ2" s="14"/>
-      <c r="FK2" s="14"/>
-      <c r="FL2" s="14"/>
-      <c r="FM2" s="14"/>
-      <c r="FN2" s="14"/>
-      <c r="FO2" s="14"/>
-      <c r="FP2" s="14"/>
-      <c r="FQ2" s="14"/>
-      <c r="FR2" s="14"/>
-      <c r="FS2" s="14"/>
-      <c r="FT2" s="14"/>
-      <c r="FU2" s="14"/>
-      <c r="FV2" s="14"/>
-      <c r="FW2" s="14"/>
-      <c r="FX2" s="14"/>
-      <c r="FY2" s="14"/>
-      <c r="FZ2" s="14"/>
-      <c r="GA2" s="14"/>
-      <c r="GB2" s="14"/>
-      <c r="GC2" s="14"/>
-      <c r="GD2" s="14"/>
-      <c r="GE2" s="14"/>
-      <c r="GF2" s="14"/>
-      <c r="GG2" s="14"/>
-      <c r="GH2" s="14"/>
-      <c r="GI2" s="14"/>
-      <c r="GJ2" s="14"/>
-      <c r="GK2" s="14"/>
-      <c r="GL2" s="14"/>
-      <c r="GM2" s="14"/>
-      <c r="GN2" s="14"/>
-      <c r="GO2" s="14"/>
-      <c r="GP2" s="14"/>
-      <c r="GQ2" s="14"/>
-      <c r="GR2" s="14"/>
-      <c r="GS2" s="14"/>
-      <c r="GT2" s="14"/>
-      <c r="GU2" s="14"/>
-      <c r="GV2" s="14"/>
-      <c r="GW2" s="14"/>
-      <c r="GX2" s="14"/>
-      <c r="GY2" s="14"/>
-      <c r="GZ2" s="14"/>
-      <c r="HA2" s="14"/>
-      <c r="HB2" s="14"/>
-      <c r="HC2" s="14"/>
-      <c r="HD2" s="14"/>
-      <c r="HE2" s="14"/>
-      <c r="HF2" s="14"/>
-      <c r="HG2" s="14"/>
-      <c r="HH2" s="14"/>
-      <c r="HI2" s="14"/>
-      <c r="HJ2" s="14"/>
-      <c r="HK2" s="14"/>
-      <c r="HL2" s="14"/>
-      <c r="HM2" s="14"/>
-      <c r="HN2" s="14"/>
-      <c r="HO2" s="14"/>
-      <c r="HP2" s="14"/>
-      <c r="HQ2" s="14"/>
-      <c r="HR2" s="14"/>
-      <c r="HS2" s="14"/>
-      <c r="HT2" s="14"/>
-      <c r="HU2" s="14"/>
-      <c r="HV2" s="14"/>
-      <c r="HW2" s="14"/>
-      <c r="HX2" s="14"/>
-      <c r="HY2" s="14"/>
-      <c r="HZ2" s="14"/>
-      <c r="IA2" s="14"/>
-      <c r="IB2" s="14"/>
-      <c r="IC2" s="14"/>
-      <c r="ID2" s="14"/>
-      <c r="IE2" s="14"/>
-      <c r="IF2" s="14"/>
-      <c r="IG2" s="14"/>
-      <c r="IH2" s="14"/>
-      <c r="II2" s="14"/>
-      <c r="IJ2" s="14"/>
-      <c r="IK2" s="14"/>
-      <c r="IL2" s="14"/>
-      <c r="IM2" s="14"/>
-      <c r="IN2" s="14"/>
-      <c r="IO2" s="14"/>
-      <c r="IP2" s="14"/>
-      <c r="IQ2" s="14"/>
-      <c r="IR2" s="14"/>
-      <c r="IS2" s="14"/>
-      <c r="IT2" s="14"/>
-      <c r="IU2" s="14"/>
-      <c r="IV2" s="14"/>
-      <c r="IW2" s="14"/>
-      <c r="IX2" s="14"/>
-      <c r="IY2" s="14"/>
-      <c r="IZ2" s="14"/>
-      <c r="JA2" s="14"/>
-      <c r="JB2" s="14"/>
-      <c r="JC2" s="14"/>
-      <c r="JD2" s="14"/>
-      <c r="JE2" s="14"/>
-      <c r="JF2" s="14"/>
-      <c r="JG2" s="14"/>
-      <c r="JH2" s="14"/>
-      <c r="JI2" s="14"/>
-      <c r="JJ2" s="14"/>
-      <c r="JK2" s="14"/>
-      <c r="JL2" s="14"/>
-      <c r="JM2" s="14"/>
-      <c r="JN2" s="14"/>
-      <c r="JO2" s="14"/>
-      <c r="JP2" s="14"/>
-      <c r="JQ2" s="14"/>
-      <c r="JR2" s="14"/>
-      <c r="JS2" s="14"/>
-      <c r="JT2" s="14"/>
-      <c r="JU2" s="14"/>
-      <c r="JV2" s="14"/>
-      <c r="JW2" s="14"/>
-      <c r="JX2" s="14"/>
-      <c r="JY2" s="14"/>
-      <c r="JZ2" s="14"/>
-      <c r="KA2" s="14"/>
-      <c r="KB2" s="14"/>
-      <c r="KC2" s="14"/>
-      <c r="KD2" s="14"/>
-      <c r="KE2" s="14"/>
-      <c r="KF2" s="14"/>
-      <c r="KG2" s="14"/>
-      <c r="KH2" s="14"/>
-      <c r="KI2" s="14"/>
-      <c r="KJ2" s="14"/>
-      <c r="KK2" s="14"/>
-      <c r="KL2" s="14"/>
-      <c r="KM2" s="14"/>
-      <c r="KN2" s="14"/>
-      <c r="KO2" s="14"/>
-      <c r="KP2" s="14"/>
-      <c r="KQ2" s="14"/>
-      <c r="KR2" s="14"/>
-      <c r="KS2" s="14"/>
-      <c r="KT2" s="14"/>
-      <c r="KU2" s="14"/>
-      <c r="KV2" s="14"/>
-      <c r="KW2" s="14"/>
-      <c r="KX2" s="14"/>
-      <c r="KY2" s="14"/>
-      <c r="KZ2" s="14"/>
-      <c r="LA2" s="14"/>
-      <c r="LB2" s="14"/>
-      <c r="LC2" s="14"/>
-      <c r="LD2" s="14"/>
-      <c r="LE2" s="14"/>
-      <c r="LF2" s="14"/>
-      <c r="LG2" s="14"/>
-      <c r="LH2" s="14"/>
-      <c r="LI2" s="14"/>
-      <c r="LJ2" s="14"/>
-      <c r="LK2" s="14"/>
-      <c r="LL2" s="14"/>
-      <c r="LM2" s="14"/>
-      <c r="LN2" s="14"/>
-      <c r="LO2" s="14"/>
-      <c r="LP2" s="14"/>
-      <c r="LQ2" s="14"/>
-      <c r="LR2" s="14"/>
-      <c r="LS2" s="14"/>
-      <c r="LT2" s="14"/>
-      <c r="LU2" s="14"/>
-      <c r="LV2" s="14"/>
-      <c r="LW2" s="14"/>
-      <c r="LX2" s="14"/>
-      <c r="LY2" s="14"/>
-      <c r="LZ2" s="14"/>
-      <c r="MA2" s="14"/>
-      <c r="MB2" s="14"/>
-      <c r="MC2" s="14"/>
-      <c r="MD2" s="14"/>
-      <c r="ME2" s="14"/>
-      <c r="MF2" s="14"/>
-      <c r="MG2" s="14"/>
-      <c r="MH2" s="14"/>
-      <c r="MI2" s="14"/>
-      <c r="MJ2" s="14"/>
-      <c r="MK2" s="14"/>
-      <c r="ML2" s="14"/>
-      <c r="MM2" s="14"/>
-      <c r="MN2" s="14"/>
-      <c r="MO2" s="14"/>
-      <c r="MP2" s="14"/>
-      <c r="MQ2" s="14"/>
-      <c r="MR2" s="14"/>
-      <c r="MS2" s="14"/>
-      <c r="MT2" s="14"/>
-      <c r="MU2" s="14"/>
-      <c r="MV2" s="14"/>
-      <c r="MW2" s="14"/>
-      <c r="MX2" s="14"/>
-      <c r="MY2" s="14"/>
-      <c r="MZ2" s="14"/>
-      <c r="NA2" s="14"/>
-      <c r="NB2" s="14"/>
-      <c r="NC2" s="14"/>
-      <c r="ND2" s="14"/>
-      <c r="NE2" s="14"/>
-      <c r="NF2" s="14"/>
-      <c r="NG2" s="14"/>
-      <c r="NH2" s="14"/>
-      <c r="NI2" s="14"/>
-      <c r="NJ2" s="14"/>
-      <c r="NK2" s="14"/>
-      <c r="NL2" s="14"/>
-      <c r="NM2" s="14"/>
-      <c r="NN2" s="14"/>
-      <c r="NO2" s="14"/>
-      <c r="NP2" s="14"/>
-      <c r="NQ2" s="14"/>
-      <c r="NR2" s="14"/>
-      <c r="NS2" s="14"/>
-      <c r="NT2" s="14"/>
-      <c r="NU2" s="14"/>
-      <c r="NV2" s="14"/>
-      <c r="NW2" s="14"/>
-      <c r="NX2" s="14"/>
-      <c r="NY2" s="14"/>
-      <c r="NZ2" s="14"/>
-      <c r="OA2" s="14"/>
-      <c r="OB2" s="14"/>
-      <c r="OC2" s="14"/>
-      <c r="OD2" s="14"/>
-      <c r="OE2" s="14"/>
-      <c r="OF2" s="14"/>
-      <c r="OG2" s="14"/>
-      <c r="OH2" s="14"/>
-      <c r="OI2" s="14"/>
-      <c r="OJ2" s="14"/>
-      <c r="OK2" s="14"/>
-      <c r="OL2" s="14"/>
-      <c r="OM2" s="14"/>
-      <c r="ON2" s="14"/>
-      <c r="OO2" s="14"/>
-      <c r="OP2" s="14"/>
-      <c r="OQ2" s="14"/>
-      <c r="OR2" s="14"/>
-      <c r="OS2" s="14"/>
-      <c r="OT2" s="14"/>
-      <c r="OU2" s="14"/>
-      <c r="OV2" s="14"/>
-      <c r="OW2" s="14"/>
-      <c r="OX2" s="14"/>
-      <c r="OY2" s="14"/>
-      <c r="OZ2" s="14"/>
-      <c r="PA2" s="14"/>
-      <c r="PB2" s="14"/>
-      <c r="PC2" s="14"/>
-      <c r="PD2" s="14"/>
-      <c r="PE2" s="14"/>
-      <c r="PF2" s="14"/>
-      <c r="PG2" s="14"/>
-      <c r="PH2" s="14"/>
-      <c r="PI2" s="14"/>
-      <c r="PJ2" s="14"/>
-      <c r="PK2" s="14"/>
-      <c r="PL2" s="14"/>
-      <c r="PM2" s="14"/>
-      <c r="PN2" s="14"/>
-      <c r="PO2" s="14"/>
-      <c r="PP2" s="14"/>
-      <c r="PQ2" s="14"/>
-      <c r="PR2" s="14"/>
-      <c r="PS2" s="14"/>
-      <c r="PT2" s="14"/>
-      <c r="PU2" s="14"/>
-      <c r="PV2" s="14"/>
-      <c r="PW2" s="14"/>
-      <c r="PX2" s="14"/>
-      <c r="PY2" s="14"/>
-      <c r="PZ2" s="14"/>
-      <c r="QA2" s="14"/>
-      <c r="QB2" s="14"/>
-      <c r="QC2" s="14"/>
-      <c r="QD2" s="14"/>
-      <c r="QE2" s="14"/>
-      <c r="QF2" s="14"/>
-      <c r="QG2" s="14"/>
-      <c r="QH2" s="14"/>
-      <c r="QI2" s="14"/>
-      <c r="QJ2" s="14"/>
-      <c r="QK2" s="14"/>
-      <c r="QL2" s="14"/>
-      <c r="QM2" s="14"/>
-      <c r="QN2" s="14"/>
-      <c r="QO2" s="14"/>
-      <c r="QP2" s="14"/>
-      <c r="QQ2" s="14"/>
-      <c r="QR2" s="14"/>
-      <c r="QS2" s="14"/>
-      <c r="QT2" s="14"/>
-      <c r="QU2" s="14"/>
-      <c r="QV2" s="14"/>
-      <c r="QW2" s="14"/>
-      <c r="QX2" s="14"/>
-      <c r="QY2" s="14"/>
-      <c r="QZ2" s="14"/>
-      <c r="RA2" s="14"/>
-      <c r="RB2" s="14"/>
-      <c r="RC2" s="14"/>
-      <c r="RD2" s="14"/>
-      <c r="RE2" s="14"/>
-      <c r="RF2" s="14"/>
-      <c r="RG2" s="14"/>
-      <c r="RH2" s="14"/>
-      <c r="RI2" s="14"/>
-      <c r="RJ2" s="14"/>
-      <c r="RK2" s="14"/>
-      <c r="RL2" s="14"/>
-      <c r="RM2" s="14"/>
-      <c r="RN2" s="14"/>
-      <c r="RO2" s="14"/>
-      <c r="RP2" s="14"/>
-      <c r="RQ2" s="14"/>
-      <c r="RR2" s="14"/>
-      <c r="RS2" s="14"/>
-      <c r="RT2" s="14"/>
-      <c r="RU2" s="14"/>
-      <c r="RV2" s="14"/>
-      <c r="RW2" s="14"/>
-      <c r="RX2" s="14"/>
-      <c r="RY2" s="14"/>
-      <c r="RZ2" s="14"/>
-      <c r="SA2" s="14"/>
-      <c r="SB2" s="14"/>
-      <c r="SC2" s="14"/>
-      <c r="SD2" s="14"/>
-      <c r="SE2" s="14"/>
-      <c r="SF2" s="14"/>
-      <c r="SG2" s="14"/>
-      <c r="SH2" s="14"/>
-      <c r="SI2" s="14"/>
-      <c r="SJ2" s="15"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="17"/>
+      <c r="BD2" s="17"/>
+      <c r="BE2" s="17"/>
+      <c r="BF2" s="17"/>
+      <c r="BG2" s="17"/>
+      <c r="BH2" s="17"/>
+      <c r="BI2" s="17"/>
+      <c r="BJ2" s="17"/>
+      <c r="BK2" s="17"/>
+      <c r="BL2" s="17"/>
+      <c r="BM2" s="17"/>
+      <c r="BN2" s="17"/>
+      <c r="BO2" s="17"/>
+      <c r="BP2" s="17"/>
+      <c r="BQ2" s="17"/>
+      <c r="BR2" s="17"/>
+      <c r="BS2" s="17"/>
+      <c r="BT2" s="17"/>
+      <c r="BU2" s="17"/>
+      <c r="BV2" s="17"/>
+      <c r="BW2" s="17"/>
+      <c r="BX2" s="17"/>
+      <c r="BY2" s="17"/>
+      <c r="BZ2" s="17"/>
+      <c r="CA2" s="17"/>
+      <c r="CB2" s="17"/>
+      <c r="CC2" s="17"/>
+      <c r="CD2" s="17"/>
+      <c r="CE2" s="17"/>
+      <c r="CF2" s="17"/>
+      <c r="CG2" s="17"/>
+      <c r="CH2" s="17"/>
+      <c r="CI2" s="17"/>
+      <c r="CJ2" s="17"/>
+      <c r="CK2" s="17"/>
+      <c r="CL2" s="17"/>
+      <c r="CM2" s="17"/>
+      <c r="CN2" s="17"/>
+      <c r="CO2" s="17"/>
+      <c r="CP2" s="17"/>
+      <c r="CQ2" s="17"/>
+      <c r="CR2" s="17"/>
+      <c r="CS2" s="17"/>
+      <c r="CT2" s="17"/>
+      <c r="CU2" s="17"/>
+      <c r="CV2" s="17"/>
+      <c r="CW2" s="17"/>
+      <c r="CX2" s="17"/>
+      <c r="CY2" s="17"/>
+      <c r="CZ2" s="17"/>
+      <c r="DA2" s="17"/>
+      <c r="DB2" s="17"/>
+      <c r="DC2" s="17"/>
+      <c r="DD2" s="17"/>
+      <c r="DE2" s="17"/>
+      <c r="DF2" s="17"/>
+      <c r="DG2" s="17"/>
+      <c r="DH2" s="17"/>
+      <c r="DI2" s="17"/>
+      <c r="DJ2" s="17"/>
+      <c r="DK2" s="17"/>
+      <c r="DL2" s="17"/>
+      <c r="DM2" s="17"/>
+      <c r="DN2" s="17"/>
+      <c r="DO2" s="17"/>
+      <c r="DP2" s="17"/>
+      <c r="DQ2" s="17"/>
+      <c r="DR2" s="17"/>
+      <c r="DS2" s="17"/>
+      <c r="DT2" s="17"/>
+      <c r="DU2" s="17"/>
+      <c r="DV2" s="17"/>
+      <c r="DW2" s="17"/>
+      <c r="DX2" s="17"/>
+      <c r="DY2" s="17"/>
+      <c r="DZ2" s="17"/>
+      <c r="EA2" s="17"/>
+      <c r="EB2" s="17"/>
+      <c r="EC2" s="17"/>
+      <c r="ED2" s="17"/>
+      <c r="EE2" s="17"/>
+      <c r="EF2" s="17"/>
+      <c r="EG2" s="17"/>
+      <c r="EH2" s="17"/>
+      <c r="EI2" s="17"/>
+      <c r="EJ2" s="17"/>
+      <c r="EK2" s="17"/>
+      <c r="EL2" s="17"/>
+      <c r="EM2" s="17"/>
+      <c r="EN2" s="17"/>
+      <c r="EO2" s="17"/>
+      <c r="EP2" s="17"/>
+      <c r="EQ2" s="17"/>
+      <c r="ER2" s="17"/>
+      <c r="ES2" s="17"/>
+      <c r="ET2" s="17"/>
+      <c r="EU2" s="17"/>
+      <c r="EV2" s="17"/>
+      <c r="EW2" s="17"/>
+      <c r="EX2" s="17"/>
+      <c r="EY2" s="17"/>
+      <c r="EZ2" s="17"/>
+      <c r="FA2" s="17"/>
+      <c r="FB2" s="17"/>
+      <c r="FC2" s="17"/>
+      <c r="FD2" s="17"/>
+      <c r="FE2" s="17"/>
+      <c r="FF2" s="17"/>
+      <c r="FG2" s="17"/>
+      <c r="FH2" s="17"/>
+      <c r="FI2" s="17"/>
+      <c r="FJ2" s="17"/>
+      <c r="FK2" s="17"/>
+      <c r="FL2" s="17"/>
+      <c r="FM2" s="17"/>
+      <c r="FN2" s="17"/>
+      <c r="FO2" s="17"/>
+      <c r="FP2" s="17"/>
+      <c r="FQ2" s="17"/>
+      <c r="FR2" s="17"/>
+      <c r="FS2" s="17"/>
+      <c r="FT2" s="17"/>
+      <c r="FU2" s="17"/>
+      <c r="FV2" s="17"/>
+      <c r="FW2" s="17"/>
+      <c r="FX2" s="17"/>
+      <c r="FY2" s="17"/>
+      <c r="FZ2" s="17"/>
+      <c r="GA2" s="17"/>
+      <c r="GB2" s="17"/>
+      <c r="GC2" s="17"/>
+      <c r="GD2" s="17"/>
+      <c r="GE2" s="17"/>
+      <c r="GF2" s="17"/>
+      <c r="GG2" s="17"/>
+      <c r="GH2" s="17"/>
+      <c r="GI2" s="17"/>
+      <c r="GJ2" s="17"/>
+      <c r="GK2" s="17"/>
+      <c r="GL2" s="17"/>
+      <c r="GM2" s="17"/>
+      <c r="GN2" s="17"/>
+      <c r="GO2" s="17"/>
+      <c r="GP2" s="17"/>
+      <c r="GQ2" s="17"/>
+      <c r="GR2" s="17"/>
+      <c r="GS2" s="17"/>
+      <c r="GT2" s="17"/>
+      <c r="GU2" s="17"/>
+      <c r="GV2" s="17"/>
+      <c r="GW2" s="17"/>
+      <c r="GX2" s="17"/>
+      <c r="GY2" s="17"/>
+      <c r="GZ2" s="17"/>
+      <c r="HA2" s="17"/>
+      <c r="HB2" s="17"/>
+      <c r="HC2" s="17"/>
+      <c r="HD2" s="17"/>
+      <c r="HE2" s="17"/>
+      <c r="HF2" s="17"/>
+      <c r="HG2" s="17"/>
+      <c r="HH2" s="17"/>
+      <c r="HI2" s="17"/>
+      <c r="HJ2" s="17"/>
+      <c r="HK2" s="17"/>
+      <c r="HL2" s="17"/>
+      <c r="HM2" s="17"/>
+      <c r="HN2" s="17"/>
+      <c r="HO2" s="17"/>
+      <c r="HP2" s="17"/>
+      <c r="HQ2" s="17"/>
+      <c r="HR2" s="17"/>
+      <c r="HS2" s="17"/>
+      <c r="HT2" s="17"/>
+      <c r="HU2" s="17"/>
+      <c r="HV2" s="17"/>
+      <c r="HW2" s="17"/>
+      <c r="HX2" s="17"/>
+      <c r="HY2" s="17"/>
+      <c r="HZ2" s="17"/>
+      <c r="IA2" s="17"/>
+      <c r="IB2" s="17"/>
+      <c r="IC2" s="17"/>
+      <c r="ID2" s="17"/>
+      <c r="IE2" s="17"/>
+      <c r="IF2" s="17"/>
+      <c r="IG2" s="17"/>
+      <c r="IH2" s="17"/>
+      <c r="II2" s="17"/>
+      <c r="IJ2" s="17"/>
+      <c r="IK2" s="17"/>
+      <c r="IL2" s="17"/>
+      <c r="IM2" s="17"/>
+      <c r="IN2" s="17"/>
+      <c r="IO2" s="17"/>
+      <c r="IP2" s="17"/>
+      <c r="IQ2" s="17"/>
+      <c r="IR2" s="17"/>
+      <c r="IS2" s="17"/>
+      <c r="IT2" s="17"/>
+      <c r="IU2" s="17"/>
+      <c r="IV2" s="17"/>
+      <c r="IW2" s="17"/>
+      <c r="IX2" s="17"/>
+      <c r="IY2" s="17"/>
+      <c r="IZ2" s="17"/>
+      <c r="JA2" s="17"/>
+      <c r="JB2" s="17"/>
+      <c r="JC2" s="17"/>
+      <c r="JD2" s="17"/>
+      <c r="JE2" s="17"/>
+      <c r="JF2" s="17"/>
+      <c r="JG2" s="17"/>
+      <c r="JH2" s="17"/>
+      <c r="JI2" s="17"/>
+      <c r="JJ2" s="17"/>
+      <c r="JK2" s="17"/>
+      <c r="JL2" s="17"/>
+      <c r="JM2" s="17"/>
+      <c r="JN2" s="17"/>
+      <c r="JO2" s="17"/>
+      <c r="JP2" s="17"/>
+      <c r="JQ2" s="17"/>
+      <c r="JR2" s="17"/>
+      <c r="JS2" s="17"/>
+      <c r="JT2" s="17"/>
+      <c r="JU2" s="17"/>
+      <c r="JV2" s="17"/>
+      <c r="JW2" s="17"/>
+      <c r="JX2" s="17"/>
+      <c r="JY2" s="17"/>
+      <c r="JZ2" s="17"/>
+      <c r="KA2" s="17"/>
+      <c r="KB2" s="17"/>
+      <c r="KC2" s="17"/>
+      <c r="KD2" s="17"/>
+      <c r="KE2" s="17"/>
+      <c r="KF2" s="17"/>
+      <c r="KG2" s="17"/>
+      <c r="KH2" s="17"/>
+      <c r="KI2" s="17"/>
+      <c r="KJ2" s="17"/>
+      <c r="KK2" s="17"/>
+      <c r="KL2" s="17"/>
+      <c r="KM2" s="17"/>
+      <c r="KN2" s="17"/>
+      <c r="KO2" s="17"/>
+      <c r="KP2" s="17"/>
+      <c r="KQ2" s="17"/>
+      <c r="KR2" s="17"/>
+      <c r="KS2" s="17"/>
+      <c r="KT2" s="17"/>
+      <c r="KU2" s="17"/>
+      <c r="KV2" s="17"/>
+      <c r="KW2" s="17"/>
+      <c r="KX2" s="17"/>
+      <c r="KY2" s="17"/>
+      <c r="KZ2" s="17"/>
+      <c r="LA2" s="17"/>
+      <c r="LB2" s="17"/>
+      <c r="LC2" s="17"/>
+      <c r="LD2" s="17"/>
+      <c r="LE2" s="17"/>
+      <c r="LF2" s="17"/>
+      <c r="LG2" s="17"/>
+      <c r="LH2" s="17"/>
+      <c r="LI2" s="17"/>
+      <c r="LJ2" s="17"/>
+      <c r="LK2" s="17"/>
+      <c r="LL2" s="17"/>
+      <c r="LM2" s="17"/>
+      <c r="LN2" s="17"/>
+      <c r="LO2" s="17"/>
+      <c r="LP2" s="17"/>
+      <c r="LQ2" s="17"/>
+      <c r="LR2" s="17"/>
+      <c r="LS2" s="17"/>
+      <c r="LT2" s="17"/>
+      <c r="LU2" s="17"/>
+      <c r="LV2" s="17"/>
+      <c r="LW2" s="17"/>
+      <c r="LX2" s="17"/>
+      <c r="LY2" s="17"/>
+      <c r="LZ2" s="17"/>
+      <c r="MA2" s="17"/>
+      <c r="MB2" s="17"/>
+      <c r="MC2" s="17"/>
+      <c r="MD2" s="17"/>
+      <c r="ME2" s="17"/>
+      <c r="MF2" s="17"/>
+      <c r="MG2" s="17"/>
+      <c r="MH2" s="17"/>
+      <c r="MI2" s="17"/>
+      <c r="MJ2" s="17"/>
+      <c r="MK2" s="17"/>
+      <c r="ML2" s="17"/>
+      <c r="MM2" s="17"/>
+      <c r="MN2" s="17"/>
+      <c r="MO2" s="17"/>
+      <c r="MP2" s="17"/>
+      <c r="MQ2" s="17"/>
+      <c r="MR2" s="17"/>
+      <c r="MS2" s="17"/>
+      <c r="MT2" s="17"/>
+      <c r="MU2" s="17"/>
+      <c r="MV2" s="17"/>
+      <c r="MW2" s="17"/>
+      <c r="MX2" s="17"/>
+      <c r="MY2" s="17"/>
+      <c r="MZ2" s="17"/>
+      <c r="NA2" s="17"/>
+      <c r="NB2" s="17"/>
+      <c r="NC2" s="17"/>
+      <c r="ND2" s="17"/>
+      <c r="NE2" s="17"/>
+      <c r="NF2" s="17"/>
+      <c r="NG2" s="17"/>
+      <c r="NH2" s="17"/>
+      <c r="NI2" s="17"/>
+      <c r="NJ2" s="17"/>
+      <c r="NK2" s="17"/>
+      <c r="NL2" s="17"/>
+      <c r="NM2" s="17"/>
+      <c r="NN2" s="17"/>
+      <c r="NO2" s="17"/>
+      <c r="NP2" s="17"/>
+      <c r="NQ2" s="17"/>
+      <c r="NR2" s="17"/>
+      <c r="NS2" s="17"/>
+      <c r="NT2" s="17"/>
+      <c r="NU2" s="17"/>
+      <c r="NV2" s="17"/>
+      <c r="NW2" s="17"/>
+      <c r="NX2" s="17"/>
+      <c r="NY2" s="17"/>
+      <c r="NZ2" s="17"/>
+      <c r="OA2" s="17"/>
+      <c r="OB2" s="17"/>
+      <c r="OC2" s="17"/>
+      <c r="OD2" s="17"/>
+      <c r="OE2" s="17"/>
+      <c r="OF2" s="17"/>
+      <c r="OG2" s="17"/>
+      <c r="OH2" s="17"/>
+      <c r="OI2" s="17"/>
+      <c r="OJ2" s="17"/>
+      <c r="OK2" s="17"/>
+      <c r="OL2" s="17"/>
+      <c r="OM2" s="17"/>
+      <c r="ON2" s="17"/>
+      <c r="OO2" s="17"/>
+      <c r="OP2" s="17"/>
+      <c r="OQ2" s="17"/>
+      <c r="OR2" s="17"/>
+      <c r="OS2" s="17"/>
+      <c r="OT2" s="17"/>
+      <c r="OU2" s="17"/>
+      <c r="OV2" s="17"/>
+      <c r="OW2" s="17"/>
+      <c r="OX2" s="17"/>
+      <c r="OY2" s="17"/>
+      <c r="OZ2" s="17"/>
+      <c r="PA2" s="17"/>
+      <c r="PB2" s="17"/>
+      <c r="PC2" s="17"/>
+      <c r="PD2" s="17"/>
+      <c r="PE2" s="17"/>
+      <c r="PF2" s="17"/>
+      <c r="PG2" s="17"/>
+      <c r="PH2" s="17"/>
+      <c r="PI2" s="17"/>
+      <c r="PJ2" s="17"/>
+      <c r="PK2" s="17"/>
+      <c r="PL2" s="17"/>
+      <c r="PM2" s="17"/>
+      <c r="PN2" s="17"/>
+      <c r="PO2" s="17"/>
+      <c r="PP2" s="17"/>
+      <c r="PQ2" s="17"/>
+      <c r="PR2" s="17"/>
+      <c r="PS2" s="17"/>
+      <c r="PT2" s="17"/>
+      <c r="PU2" s="17"/>
+      <c r="PV2" s="17"/>
+      <c r="PW2" s="17"/>
+      <c r="PX2" s="17"/>
+      <c r="PY2" s="17"/>
+      <c r="PZ2" s="17"/>
+      <c r="QA2" s="17"/>
+      <c r="QB2" s="17"/>
+      <c r="QC2" s="17"/>
+      <c r="QD2" s="17"/>
+      <c r="QE2" s="17"/>
+      <c r="QF2" s="17"/>
+      <c r="QG2" s="17"/>
+      <c r="QH2" s="17"/>
+      <c r="QI2" s="17"/>
+      <c r="QJ2" s="17"/>
+      <c r="QK2" s="17"/>
+      <c r="QL2" s="17"/>
+      <c r="QM2" s="17"/>
+      <c r="QN2" s="17"/>
+      <c r="QO2" s="17"/>
+      <c r="QP2" s="17"/>
+      <c r="QQ2" s="17"/>
+      <c r="QR2" s="17"/>
+      <c r="QS2" s="17"/>
+      <c r="QT2" s="17"/>
+      <c r="QU2" s="17"/>
+      <c r="QV2" s="17"/>
+      <c r="QW2" s="17"/>
+      <c r="QX2" s="17"/>
+      <c r="QY2" s="17"/>
+      <c r="QZ2" s="17"/>
+      <c r="RA2" s="17"/>
+      <c r="RB2" s="17"/>
+      <c r="RC2" s="17"/>
+      <c r="RD2" s="17"/>
+      <c r="RE2" s="17"/>
+      <c r="RF2" s="17"/>
+      <c r="RG2" s="17"/>
+      <c r="RH2" s="17"/>
+      <c r="RI2" s="17"/>
+      <c r="RJ2" s="17"/>
+      <c r="RK2" s="17"/>
+      <c r="RL2" s="17"/>
+      <c r="RM2" s="17"/>
+      <c r="RN2" s="17"/>
+      <c r="RO2" s="17"/>
+      <c r="RP2" s="17"/>
+      <c r="RQ2" s="17"/>
+      <c r="RR2" s="17"/>
+      <c r="RS2" s="17"/>
+      <c r="RT2" s="17"/>
+      <c r="RU2" s="17"/>
+      <c r="RV2" s="17"/>
+      <c r="RW2" s="17"/>
+      <c r="RX2" s="17"/>
+      <c r="RY2" s="17"/>
+      <c r="RZ2" s="17"/>
+      <c r="SA2" s="17"/>
+      <c r="SB2" s="17"/>
+      <c r="SC2" s="17"/>
+      <c r="SD2" s="17"/>
+      <c r="SE2" s="17"/>
+      <c r="SF2" s="17"/>
+      <c r="SG2" s="17"/>
+      <c r="SH2" s="17"/>
+      <c r="SI2" s="17"/>
+      <c r="SJ2" s="18"/>
     </row>
     <row r="3" spans="3:504" ht="19" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
@@ -2529,7 +2504,7 @@
       <c r="SJ3" s="3"/>
     </row>
     <row r="4" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3039,7 +3014,7 @@
       <c r="SJ4" s="5"/>
     </row>
     <row r="5" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C5" s="17"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
@@ -4545,7 +4520,7 @@
       </c>
     </row>
     <row r="6" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C6" s="17"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
@@ -5053,7 +5028,7 @@
       <c r="SJ6" s="5"/>
     </row>
     <row r="7" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C7" s="17"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
@@ -5561,7 +5536,7 @@
       <c r="SJ7" s="5"/>
     </row>
     <row r="8" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C8" s="17"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
@@ -6069,7 +6044,7 @@
       <c r="SJ8" s="5"/>
     </row>
     <row r="9" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C9" s="17"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
@@ -7575,7 +7550,7 @@
       </c>
     </row>
     <row r="10" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C10" s="17"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
@@ -8083,7 +8058,7 @@
       <c r="SJ10" s="5"/>
     </row>
     <row r="11" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C11" s="18"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="4" t="s">
         <v>19</v>
       </c>
@@ -9589,7 +9564,7 @@
       </c>
     </row>
     <row r="12" spans="3:504" ht="19" x14ac:dyDescent="0.2">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -10097,7 +10072,7 @@
       <c r="SJ12" s="5"/>
     </row>
     <row r="13" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -10605,7 +10580,7 @@
       <c r="SJ13" s="5"/>
     </row>
     <row r="14" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C14" s="17"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
@@ -11111,7 +11086,7 @@
       <c r="SJ14" s="5"/>
     </row>
     <row r="15" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C15" s="17"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
@@ -11619,7 +11594,7 @@
       <c r="SJ15" s="5"/>
     </row>
     <row r="16" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C16" s="17"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
@@ -12127,7 +12102,7 @@
       <c r="SJ16" s="5"/>
     </row>
     <row r="17" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C17" s="17"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
@@ -12633,7 +12608,7 @@
       <c r="SJ17" s="7"/>
     </row>
     <row r="18" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C18" s="17"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="4" t="s">
         <v>30</v>
       </c>
@@ -13139,7 +13114,7 @@
       <c r="SJ18" s="5"/>
     </row>
     <row r="19" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C19" s="17"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="6" t="s">
         <v>31</v>
       </c>
@@ -13645,7 +13620,7 @@
       <c r="SJ19" s="7"/>
     </row>
     <row r="20" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C20" s="17"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
@@ -14151,7 +14126,7 @@
       <c r="SJ20" s="5"/>
     </row>
     <row r="21" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C21" s="17"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="6" t="s">
         <v>33</v>
       </c>
@@ -14657,7 +14632,7 @@
       <c r="SJ21" s="7"/>
     </row>
     <row r="22" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C22" s="17"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="4" t="s">
         <v>34</v>
       </c>
@@ -15165,7 +15140,7 @@
       <c r="SJ22" s="5"/>
     </row>
     <row r="23" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C23" s="17"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="6" t="s">
         <v>35</v>
       </c>
@@ -15671,7 +15646,7 @@
       <c r="SJ23" s="7"/>
     </row>
     <row r="24" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C24" s="17"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="4" t="s">
         <v>36</v>
       </c>
@@ -16177,7 +16152,7 @@
       <c r="SJ24" s="5"/>
     </row>
     <row r="25" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C25" s="17"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="6" t="s">
         <v>37</v>
       </c>
@@ -16683,7 +16658,7 @@
       <c r="SJ25" s="7"/>
     </row>
     <row r="26" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C26" s="17"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="4" t="s">
         <v>33</v>
       </c>
@@ -17189,7 +17164,7 @@
       <c r="SJ26" s="5"/>
     </row>
     <row r="27" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C27" s="17"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="4" t="s">
         <v>38</v>
       </c>
@@ -17695,7 +17670,7 @@
       <c r="SJ27" s="5"/>
     </row>
     <row r="28" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C28" s="18"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="4" t="s">
         <v>39</v>
       </c>
@@ -18201,7 +18176,7 @@
       <c r="SJ28" s="5"/>
     </row>
     <row r="29" spans="3:504" ht="19" x14ac:dyDescent="0.2">
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -18709,7 +18684,7 @@
       <c r="SJ29" s="5"/>
     </row>
     <row r="30" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -19217,7 +19192,7 @@
       <c r="SJ30" s="5"/>
     </row>
     <row r="31" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C31" s="17"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="4" t="s">
         <v>44</v>
       </c>
@@ -19723,7 +19698,7 @@
       <c r="SJ31" s="5"/>
     </row>
     <row r="32" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C32" s="18"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="4" t="s">
         <v>45</v>
       </c>
@@ -20229,7 +20204,7 @@
       <c r="SJ32" s="5"/>
     </row>
     <row r="33" spans="3:504" ht="19" x14ac:dyDescent="0.2">
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -20737,7 +20712,7 @@
       <c r="SJ33" s="9"/>
     </row>
     <row r="34" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C34" s="16"/>
+      <c r="C34" s="13"/>
       <c r="D34" t="s">
         <v>47</v>
       </c>
@@ -21245,7 +21220,7 @@
       <c r="SJ34" s="10"/>
     </row>
     <row r="35" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C35" s="17"/>
+      <c r="C35" s="14"/>
       <c r="D35" t="s">
         <v>49</v>
       </c>
@@ -21753,7 +21728,7 @@
       <c r="SJ35" s="10"/>
     </row>
     <row r="36" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C36" s="17"/>
+      <c r="C36" s="14"/>
       <c r="D36" t="s">
         <v>51</v>
       </c>
@@ -22261,7 +22236,7 @@
       <c r="SJ36" s="10"/>
     </row>
     <row r="37" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C37" s="18"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="8" t="s">
         <v>53</v>
       </c>
@@ -22769,7 +22744,7 @@
       <c r="SJ37" s="11"/>
     </row>
     <row r="38" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -23279,7 +23254,7 @@
       <c r="SJ38" s="10"/>
     </row>
     <row r="39" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C39" s="17"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="4" t="s">
         <v>57</v>
       </c>
@@ -23787,12 +23762,12 @@
       <c r="SJ39" s="10"/>
     </row>
     <row r="40" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C40" s="17"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -24295,12 +24270,12 @@
       <c r="SJ40" s="10"/>
     </row>
     <row r="41" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C41" s="17"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -24803,9 +24778,9 @@
       <c r="SJ41" s="10"/>
     </row>
     <row r="42" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C42" s="17"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -25309,9 +25284,9 @@
       <c r="SJ42" s="10"/>
     </row>
     <row r="43" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C43" s="17"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -25815,9 +25790,9 @@
       <c r="SJ43" s="10"/>
     </row>
     <row r="44" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C44" s="17"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -26321,9 +26296,9 @@
       <c r="SJ44" s="10"/>
     </row>
     <row r="45" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C45" s="17"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -26827,9 +26802,9 @@
       <c r="SJ45" s="10"/>
     </row>
     <row r="46" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C46" s="17"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -27333,9 +27308,9 @@
       <c r="SJ46" s="10"/>
     </row>
     <row r="47" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C47" s="18"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -27897,7 +27872,7 @@
           <x14:formula1>
             <xm:f>Accessories!$B$2:$B$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 K38 K39 K40 K41 K42 K43 K44 K45 K46 K47 L38 L39 L40 L41 L42 L43 L44 L45 L46 L47 M38 M39 M40 M41 M42 M43 M44 M45 M46 M47 N38 N39 N40 N41 N42 N43 N44 N45 N46 N47 O38 O39 O40 O41 O42 O43 O44 O45 O46 O47 P38 P39 P40 P41 P42 P43 P44 P45 P46 P47 Q38 Q39 Q40 Q41 Q42 Q43 Q44 Q45 Q46 Q47 R38 R39 R40 R41 R42 R43 R44 R45 R46 R47 S38 S39 S40 S41 S42 S43 S44 S45 S46 S47 T38 T39 T40 T41 T42 T43 T44 T45 T46 T47 U38 U39 U40 U41 U42 U43 U44 U45 U46 U47 V38 V39 V40 V41 V42 V43 V44 V45 V46 V47 W38 W39 W40 W41 W42 W43 W44 W45 W46 W47 X38 X39 X40 X41 X42 X43 X44 X45 X46 X47 Y38 Y39 Y40 Y41 Y42 Y43 Y44 Y45 Y46 Y47 Z38 Z39 Z40 Z41 Z42 Z43 Z44 Z45 Z46 Z47 AA38 AA39 AA40 AA41 AA42 AA43 AA44 AA45 AA46 AA47 AB38 AB39 AB40 AB41 AB42 AB43 AB44 AB45 AB46 AB47 AC38 AC39 AC40 AC41 AC42 AC43 AC44 AC45 AC46 AC47 AD38 AD39 AD40 AD41 AD42 AD43 AD44 AD45 AD46 AD47 AE38 AE39 AE40 AE41 AE42 AE43 AE44 AE45 AE46 AE47 AF38 AF39 AF40 AF41 AF42 AF43 AF44 AF45 AF46 AF47 AG38 AG39 AG40 AG41 AG42 AG43 AG44 AG45 AG46 AG47 AH38 AH39 AH40 AH41 AH42 AH43 AH44 AH45 AH46 AH47 AI38 AI39 AI40 AI41 AI42 AI43 AI44 AI45 AI46 AI47 AJ38 AJ39 AJ40 AJ41 AJ42 AJ43 AJ44 AJ45 AJ46 AJ47 AK38 AK39 AK40 AK41 AK42 AK43 AK44 AK45 AK46 AK47 AL38 AL39 AL40 AL41 AL42 AL43 AL44 AL45 AL46 AL47 AM38 AM39 AM40 AM41 AM42 AM43 AM44 AM45 AM46 AM47 AN38 AN39 AN40 AN41 AN42 AN43 AN44 AN45 AN46 AN47 AO38 AO39 AO40 AO41 AO42 AO43 AO44 AO45 AO46 AO47 AP38 AP39 AP40 AP41 AP42 AP43 AP44 AP45 AP46 AP47 AQ38 AQ39 AQ40 AQ41 AQ42 AQ43 AQ44 AQ45 AQ46 AQ47 AR38 AR39 AR40 AR41 AR42 AR43 AR44 AR45 AR46 AR47 AS38 AS39 AS40 AS41 AS42 AS43 AS44 AS45 AS46 AS47 AT38 AT39 AT40 AT41 AT42 AT43 AT44 AT45 AT46 AT47 AU38 AU39 AU40 AU41 AU42 AU43 AU44 AU45 AU46 AU47 AV38 AV39 AV40 AV41 AV42 AV43 AV44 AV45 AV46 AV47 AW38 AW39 AW40 AW41 AW42 AW43 AW44 AW45 AW46 AW47 AX38 AX39 AX40 AX41 AX42 AX43 AX44 AX45 AX46 AX47 AY38 AY39 AY40 AY41 AY42 AY43 AY44 AY45 AY46 AY47 AZ38 AZ39 AZ40 AZ41 AZ42 AZ43 AZ44 AZ45 AZ46 AZ47 BA38 BA39 BA40 BA41 BA42 BA43 BA44 BA45 BA46 BA47 BB38 BB39 BB40 BB41 BB42 BB43 BB44 BB45 BB46 BB47 BC38 BC39 BC40 BC41 BC42 BC43 BC44 BC45 BC46 BC47 BD38 BD39 BD40 BD41 BD42 BD43 BD44 BD45 BD46 BD47 BE38 BE39 BE40 BE41 BE42 BE43 BE44 BE45 BE46 BE47 BF38 BF39 BF40 BF41 BF42 BF43 BF44 BF45 BF46 BF47 BG38 BG39 BG40 BG41 BG42 BG43 BG44 BG45 BG46 BG47 BH38 BH39 BH40 BH41 BH42 BH43 BH44 BH45 BH46 BH47 BI38 BI39 BI40 BI41 BI42 BI43 BI44 BI45 BI46 BI47 BJ38 BJ39 BJ40 BJ41 BJ42 BJ43 BJ44 BJ45 BJ46 BJ47 BK38 BK39 BK40 BK41 BK42 BK43 BK44 BK45 BK46 BK47 BL38 BL39 BL40 BL41 BL42 BL43 BL44 BL45 BL46 BL47 BM38 BM39 BM40 BM41 BM42 BM43 BM44 BM45 BM46 BM47 BN38 BN39 BN40 BN41 BN42 BN43 BN44 BN45 BN46 BN47 BO38 BO39 BO40 BO41 BO42 BO43 BO44 BO45 BO46 BO47 BP38 BP39 BP40 BP41 BP42 BP43 BP44 BP45 BP46 BP47 BQ38 BQ39 BQ40 BQ41 BQ42 BQ43 BQ44 BQ45 BQ46 BQ47 BR38 BR39 BR40 BR41 BR42 BR43 BR44 BR45 BR46 BR47 BS38 BS39 BS40 BS41 BS42 BS43 BS44 BS45 BS46 BS47 BT38 BT39 BT40 BT41 BT42 BT43 BT44 BT45 BT46 BT47 BU38 BU39 BU40 BU41 BU42 BU43 BU44 BU45 BU46 BU47 BV38 BV39 BV40 BV41 BV42 BV43 BV44 BV45 BV46 BV47 BW38 BW39 BW40 BW41 BW42 BW43 BW44 BW45 BW46 BW47 BX38 BX39 BX40 BX41 BX42 BX43 BX44 BX45 BX46 BX47 BY38 BY39 BY40 BY41 BY42 BY43 BY44 BY45 BY46 BY47 BZ38 BZ39 BZ40 BZ41 BZ42 BZ43 BZ44 BZ45 BZ46 BZ47 CA38 CA39 CA40 CA41 CA42 CA43 CA44 CA45 CA46 CA47 CB38 CB39 CB40 CB41 CB42 CB43 CB44 CB45 CB46 CB47 CC38 CC39 CC40 CC41 CC42 CC43 CC44 CC45 CC46 CC47 CD38 CD39 CD40 CD41 CD42 CD43 CD44 CD45 CD46 CD47 CE38 CE39 CE40 CE41 CE42 CE43 CE44 CE45 CE46 CE47 CF38 CF39 CF40 CF41 CF42 CF43 CF44 CF45 CF46 CF47 CG38 CG39 CG40 CG41 CG42 CG43 CG44 CG45 CG46 CG47 CH38 CH39 CH40 CH41 CH42 CH43 CH44 CH45 CH46 CH47 CI38 CI39 CI40 CI41 CI42 CI43 CI44 CI45 CI46 CI47 CJ38 CJ39 CJ40 CJ41 CJ42 CJ43 CJ44 CJ45 CJ46 CJ47 CK38 CK39 CK40 CK41 CK42 CK43 CK44 CK45 CK46 CK47 CL38 CL39 CL40 CL41 CL42 CL43 CL44 CL45 CL46 CL47 CM38 CM39 CM40 CM41 CM42 CM43 CM44 CM45 CM46 CM47 CN38 CN39 CN40 CN41 CN42 CN43 CN44 CN45 CN46 CN47 CO38 CO39 CO40 CO41 CO42 CO43 CO44 CO45 CO46 CO47 CP38 CP39 CP40 CP41 CP42 CP43 CP44 CP45 CP46 CP47 CQ38 CQ39 CQ40 CQ41 CQ42 CQ43 CQ44 CQ45 CQ46 CQ47 CR38 CR39 CR40 CR41 CR42 CR43 CR44 CR45 CR46 CR47 CS38 CS39 CS40 CS41 CS42 CS43 CS44 CS45 CS46 CS47 CT38 CT39 CT40 CT41 CT42 CT43 CT44 CT45 CT46 CT47 CU38 CU39 CU40 CU41 CU42 CU43 CU44 CU45 CU46 CU47 CV38 CV39 CV40 CV41 CV42 CV43 CV44 CV45 CV46 CV47 CW38 CW39 CW40 CW41 CW42 CW43 CW44 CW45 CW46 CW47 CX38 CX39 CX40 CX41 CX42 CX43 CX44 CX45 CX46 CX47 CY38 CY39 CY40 CY41 CY42 CY43 CY44 CY45 CY46 CY47 CZ38 CZ39 CZ40 CZ41 CZ42 CZ43 CZ44 CZ45 CZ46 CZ47 DA38 DA39 DA40 DA41 DA42 DA43 DA44 DA45 DA46 DA47 DB38 DB39 DB40 DB41 DB42 DB43 DB44 DB45 DB46 DB47 DC38 DC39 DC40 DC41 DC42 DC43 DC44 DC45 DC46 DC47 DD38 DD39 DD40 DD41 DD42 DD43 DD44 DD45 DD46 DD47 DE38 DE39 DE40 DE41 DE42 DE43 DE44 DE45 DE46 DE47 DF38 DF39 DF40 DF41 DF42 DF43 DF44 DF45 DF46 DF47 DG38 DG39 DG40 DG41 DG42 DG43 DG44 DG45 DG46 DG47 DH38 DH39 DH40 DH41 DH42 DH43 DH44 DH45 DH46 DH47 DI38 DI39 DI40 DI41 DI42 DI43 DI44 DI45 DI46 DI47 DJ38 DJ39 DJ40 DJ41 DJ42 DJ43 DJ44 DJ45 DJ46 DJ47 DK38 DK39 DK40 DK41 DK42 DK43 DK44 DK45 DK46 DK47 DL38 DL39 DL40 DL41 DL42 DL43 DL44 DL45 DL46 DL47 DM38 DM39 DM40 DM41 DM42 DM43 DM44 DM45 DM46 DM47 DN38 DN39 DN40 DN41 DN42 DN43 DN44 DN45 DN46 DN47 DO38 DO39 DO40 DO41 DO42 DO43 DO44 DO45 DO46 DO47 DP38 DP39 DP40 DP41 DP42 DP43 DP44 DP45 DP46 DP47 DQ38 DQ39 DQ40 DQ41 DQ42 DQ43 DQ44 DQ45 DQ46 DQ47 DR38 DR39 DR40 DR41 DR42 DR43 DR44 DR45 DR46 DR47 DS38 DS39 DS40 DS41 DS42 DS43 DS44 DS45 DS46 DS47 DT38 DT39 DT40 DT41 DT42 DT43 DT44 DT45 DT46 DT47 DU38 DU39 DU40 DU41 DU42 DU43 DU44 DU45 DU46 DU47 DV38 DV39 DV40 DV41 DV42 DV43 DV44 DV45 DV46 DV47 DW38 DW39 DW40 DW41 DW42 DW43 DW44 DW45 DW46 DW47 DX38 DX39 DX40 DX41 DX42 DX43 DX44 DX45 DX46 DX47 DY38 DY39 DY40 DY41 DY42 DY43 DY44 DY45 DY46 DY47 DZ38 DZ39 DZ40 DZ41 DZ42 DZ43 DZ44 DZ45 DZ46 DZ47 EA38 EA39 EA40 EA41 EA42 EA43 EA44 EA45 EA46 EA47 EB38 EB39 EB40 EB41 EB42 EB43 EB44 EB45 EB46 EB47 EC38 EC39 EC40 EC41 EC42 EC43 EC44 EC45 EC46 EC47 ED38 ED39 ED40 ED41 ED42 ED43 ED44 ED45 ED46 ED47 EE38 EE39 EE40 EE41 EE42 EE43 EE44 EE45 EE46 EE47 EF38 EF39 EF40 EF41 EF42 EF43 EF44 EF45 EF46 EF47 EG38 EG39 EG40 EG41 EG42 EG43 EG44 EG45 EG46 EG47 EH38 EH39 EH40 EH41 EH42 EH43 EH44 EH45 EH46 EH47 EI38 EI39 EI40 EI41 EI42 EI43 EI44 EI45 EI46 EI47 EJ38 EJ39 EJ40 EJ41 EJ42 EJ43 EJ44 EJ45 EJ46 EJ47 EK38 EK39 EK40 EK41 EK42 EK43 EK44 EK45 EK46 EK47 EL38 EL39 EL40 EL41 EL42 EL43 EL44 EL45 EL46 EL47 EM38 EM39 EM40 EM41 EM42 EM43 EM44 EM45 EM46 EM47 EN38 EN39 EN40 EN41 EN42 EN43 EN44 EN45 EN46 EN47 EO38 EO39 EO40 EO41 EO42 EO43 EO44 EO45 EO46 EO47 EP38 EP39 EP40 EP41 EP42 EP43 EP44 EP45 EP46 EP47 EQ38 EQ39 EQ40 EQ41 EQ42 EQ43 EQ44 EQ45 EQ46 EQ47 ER38 ER39 ER40 ER41 ER42 ER43 ER44 ER45 ER46 ER47 ES38 ES39 ES40 ES41 ES42 ES43 ES44 ES45 ES46 ES47 ET38 ET39 ET40 ET41 ET42 ET43 ET44 ET45 ET46 ET47 EU38 EU39 EU40 EU41 EU42 EU43 EU44 EU45 EU46 EU47 EV38 EV39 EV40 EV41 EV42 EV43 EV44 EV45 EV46 EV47 EW38 EW39 EW40 EW41 EW42 EW43 EW44 EW45 EW46 EW47 EX38 EX39 EX40 EX41 EX42 EX43 EX44 EX45 EX46 EX47 EY38 EY39 EY40 EY41 EY42 EY43 EY44 EY45 EY46 EY47 EZ38 EZ39 EZ40 EZ41 EZ42 EZ43 EZ44 EZ45 EZ46 EZ47 FA38 FA39 FA40 FA41 FA42 FA43 FA44 FA45 FA46 FA47 FB38 FB39 FB40 FB41 FB42 FB43 FB44 FB45 FB46 FB47 FC38 FC39 FC40 FC41 FC42 FC43 FC44 FC45 FC46 FC47 FD38 FD39 FD40 FD41 FD42 FD43 FD44 FD45 FD46 FD47 FE38 FE39 FE40 FE41 FE42 FE43 FE44 FE45 FE46 FE47 FF38 FF39 FF40 FF41 FF42 FF43 FF44 FF45 FF46 FF47 FG38 FG39 FG40 FG41 FG42 FG43 FG44 FG45 FG46 FG47 FH38 FH39 FH40 FH41 FH42 FH43 FH44 FH45 FH46 FH47 FI38 FI39 FI40 FI41 FI42 FI43 FI44 FI45 FI46 FI47 FJ38 FJ39 FJ40 FJ41 FJ42 FJ43 FJ44 FJ45 FJ46 FJ47 FK38 FK39 FK40 FK41 FK42 FK43 FK44 FK45 FK46 FK47 FL38 FL39 FL40 FL41 FL42 FL43 FL44 FL45 FL46 FL47 FM38 FM39 FM40 FM41 FM42 FM43 FM44 FM45 FM46 FM47 FN38 FN39 FN40 FN41 FN42 FN43 FN44 FN45 FN46 FN47 FO38 FO39 FO40 FO41 FO42 FO43 FO44 FO45 FO46 FO47 FP38 FP39 FP40 FP41 FP42 FP43 FP44 FP45 FP46 FP47 FQ38 FQ39 FQ40 FQ41 FQ42 FQ43 FQ44 FQ45 FQ46 FQ47 FR38 FR39 FR40 FR41 FR42 FR43 FR44 FR45 FR46 FR47 FS38 FS39 FS40 FS41 FS42 FS43 FS44 FS45 FS46 FS47 FT38 FT39 FT40 FT41 FT42 FT43 FT44 FT45 FT46 FT47 FU38 FU39 FU40 FU41 FU42 FU43 FU44 FU45 FU46 FU47 FV38 FV39 FV40 FV41 FV42 FV43 FV44 FV45 FV46 FV47 FW38 FW39 FW40 FW41 FW42 FW43 FW44 FW45 FW46 FW47 FX38 FX39 FX40 FX41 FX42 FX43 FX44 FX45 FX46 FX47 FY38 FY39 FY40 FY41 FY42 FY43 FY44 FY45 FY46 FY47 FZ38 FZ39 FZ40 FZ41 FZ42 FZ43 FZ44 FZ45 FZ46 FZ47 GA38 GA39 GA40 GA41 GA42 GA43 GA44 GA45 GA46 GA47 GB38 GB39 GB40 GB41 GB42 GB43 GB44 GB45 GB46 GB47 GC38 GC39 GC40 GC41 GC42 GC43 GC44 GC45 GC46 GC47 GD38 GD39 GD40 GD41 GD42 GD43 GD44 GD45 GD46 GD47 GE38 GE39 GE40 GE41 GE42 GE43 GE44 GE45 GE46 GE47 GF38 GF39 GF40 GF41 GF42 GF43 GF44 GF45 GF46 GF47 GG38 GG39 GG40 GG41 GG42 GG43 GG44 GG45 GG46 GG47 GH38 GH39 GH40 GH41 GH42 GH43 GH44 GH45 GH46 GH47 GI38 GI39 GI40 GI41 GI42 GI43 GI44 GI45 GI46 GI47 GJ38 GJ39 GJ40 GJ41 GJ42 GJ43 GJ44 GJ45 GJ46 GJ47 GK38 GK39 GK40 GK41 GK42 GK43 GK44 GK45 GK46 GK47 GL38 GL39 GL40 GL41 GL42 GL43 GL44 GL45 GL46 GL47 GM38 GM39 GM40 GM41 GM42 GM43 GM44 GM45 GM46 GM47 GN38 GN39 GN40 GN41 GN42 GN43 GN44 GN45 GN46 GN47 GO38 GO39 GO40 GO41 GO42 GO43 GO44 GO45 GO46 GO47 GP38 GP39 GP40 GP41 GP42 GP43 GP44 GP45 GP46 GP47 GQ38 GQ39 GQ40 GQ41 GQ42 GQ43 GQ44 GQ45 GQ46 GQ47 GR38 GR39 GR40 GR41 GR42 GR43 GR44 GR45 GR46 GR47 GS38 GS39 GS40 GS41 GS42 GS43 GS44 GS45 GS46 GS47 GT38 GT39 GT40 GT41 GT42 GT43 GT44 GT45 GT46 GT47 GU38 GU39 GU40 GU41 GU42 GU43 GU44 GU45 GU46 GU47 GV38 GV39 GV40 GV41 GV42 GV43 GV44 GV45 GV46 GV47 GW38 GW39 GW40 GW41 GW42 GW43 GW44 GW45 GW46 GW47 GX38 GX39 GX40 GX41 GX42 GX43 GX44 GX45 GX46 GX47 GY38 GY39 GY40 GY41 GY42 GY43 GY44 GY45 GY46 GY47 GZ38 GZ39 GZ40 GZ41 GZ42 GZ43 GZ44 GZ45 GZ46 GZ47 HA38 HA39 HA40 HA41 HA42 HA43 HA44 HA45 HA46 HA47 HB38 HB39 HB40 HB41 HB42 HB43 HB44 HB45 HB46 HB47 HC38 HC39 HC40 HC41 HC42 HC43 HC44 HC45 HC46 HC47 HD38 HD39 HD40 HD41 HD42 HD43 HD44 HD45 HD46 HD47 HE38 HE39 HE40 HE41 HE42 HE43 HE44 HE45 HE46 HE47 HF38 HF39 HF40 HF41 HF42 HF43 HF44 HF45 HF46 HF47 HG38 HG39 HG40 HG41 HG42 HG43 HG44 HG45 HG46 HG47 HH38 HH39 HH40 HH41 HH42 HH43 HH44 HH45 HH46 HH47 HI38 HI39 HI40 HI41 HI42 HI43 HI44 HI45 HI46 HI47 HJ38 HJ39 HJ40 HJ41 HJ42 HJ43 HJ44 HJ45 HJ46 HJ47 HK38 HK39 HK40 HK41 HK42 HK43 HK44 HK45 HK46 HK47 HL38 HL39 HL40 HL41 HL42 HL43 HL44 HL45 HL46 HL47 HM38 HM39 HM40 HM41 HM42 HM43 HM44 HM45 HM46 HM47 HN38 HN39 HN40 HN41 HN42 HN43 HN44 HN45 HN46 HN47 HO38 HO39 HO40 HO41 HO42 HO43 HO44 HO45 HO46 HO47 HP38 HP39 HP40 HP41 HP42 HP43 HP44 HP45 HP46 HP47 HQ38 HQ39 HQ40 HQ41 HQ42 HQ43 HQ44 HQ45 HQ46 HQ47 HR38 HR39 HR40 HR41 HR42 HR43 HR44 HR45 HR46 HR47 HS38 HS39 HS40 HS41 HS42 HS43 HS44 HS45 HS46 HS47 HT38 HT39 HT40 HT41 HT42 HT43 HT44 HT45 HT46 HT47 HU38 HU39 HU40 HU41 HU42 HU43 HU44 HU45 HU46 HU47 HV38 HV39 HV40 HV41 HV42 HV43 HV44 HV45 HV46 HV47 HW38 HW39 HW40 HW41 HW42 HW43 HW44 HW45 HW46 HW47 HX38 HX39 HX40 HX41 HX42 HX43 HX44 HX45 HX46 HX47 HY38 HY39 HY40 HY41 HY42 HY43 HY44 HY45 HY46 HY47 HZ38 HZ39 HZ40 HZ41 HZ42 HZ43 HZ44 HZ45 HZ46 HZ47 IA38 IA39 IA40 IA41 IA42 IA43 IA44 IA45 IA46 IA47 IB38 IB39 IB40 IB41 IB42 IB43 IB44 IB45 IB46 IB47 IC38 IC39 IC40 IC41 IC42 IC43 IC44 IC45 IC46 IC47 ID38 ID39 ID40 ID41 ID42 ID43 ID44 ID45 ID46 ID47 IE38 IE39 IE40 IE41 IE42 IE43 IE44 IE45 IE46 IE47 IF38 IF39 IF40 IF41 IF42 IF43 IF44 IF45 IF46 IF47 IG38 IG39 IG40 IG41 IG42 IG43 IG44 IG45 IG46 IG47 IH38 IH39 IH40 IH41 IH42 IH43 IH44 IH45 IH46 IH47 II38 II39 II40 II41 II42 II43 II44 II45 II46 II47 IJ38 IJ39 IJ40 IJ41 IJ42 IJ43 IJ44 IJ45 IJ46 IJ47 IK38 IK39 IK40 IK41 IK42 IK43 IK44 IK45 IK46 IK47 IL38 IL39 IL40 IL41 IL42 IL43 IL44 IL45 IL46 IL47 IM38 IM39 IM40 IM41 IM42 IM43 IM44 IM45 IM46 IM47 IN38 IN39 IN40 IN41 IN42 IN43 IN44 IN45 IN46 IN47 IO38 IO39 IO40 IO41 IO42 IO43 IO44 IO45 IO46 IO47 IP38 IP39 IP40 IP41 IP42 IP43 IP44 IP45 IP46 IP47 IQ38 IQ39 IQ40 IQ41 IQ42 IQ43 IQ44 IQ45 IQ46 IQ47 IR38 IR39 IR40 IR41 IR42 IR43 IR44 IR45 IR46 IR47 IS38 IS39 IS40 IS41 IS42 IS43 IS44 IS45 IS46 IS47 IT38 IT39 IT40 IT41 IT42 IT43 IT44 IT45 IT46 IT47 IU38 IU39 IU40 IU41 IU42 IU43 IU44 IU45 IU46 IU47 IV38 IV39 IV40 IV41 IV42 IV43 IV44 IV45 IV46 IV47 IW38 IW39 IW40 IW41 IW42 IW43 IW44 IW45 IW46 IW47 IX38 IX39 IX40 IX41 IX42 IX43 IX44 IX45 IX46 IX47 IY38 IY39 IY40 IY41 IY42 IY43 IY44 IY45 IY46 IY47 IZ38 IZ39 IZ40 IZ41 IZ42 IZ43 IZ44 IZ45 IZ46 IZ47 JA38 JA39 JA40 JA41 JA42 JA43 JA44 JA45 JA46 JA47 JB38 JB39 JB40 JB41 JB42 JB43 JB44 JB45 JB46 JB47 JC38 JC39 JC40 JC41 JC42 JC43 JC44 JC45 JC46 JC47 JD38 JD39 JD40 JD41 JD42 JD43 JD44 JD45 JD46 JD47 JE38 JE39 JE40 JE41 JE42 JE43 JE44 JE45 JE46 JE47 JF38 JF39 JF40 JF41 JF42 JF43 JF44 JF45 JF46 JF47 JG38 JG39 JG40 JG41 JG42 JG43 JG44 JG45 JG46 JG47 JH38 JH39 JH40 JH41 JH42 JH43 JH44 JH45 JH46 JH47 JI38 JI39 JI40 JI41 JI42 JI43 JI44 JI45 JI46 JI47 JJ38 JJ39 JJ40 JJ41 JJ42 JJ43 JJ44 JJ45 JJ46 JJ47 JK38 JK39 JK40 JK41 JK42 JK43 JK44 JK45 JK46 JK47 JL38 JL39 JL40 JL41 JL42 JL43 JL44 JL45 JL46 JL47 JM38 JM39 JM40 JM41 JM42 JM43 JM44 JM45 JM46 JM47 JN38 JN39 JN40 JN41 JN42 JN43 JN44 JN45 JN46 JN47 JO38 JO39 JO40 JO41 JO42 JO43 JO44 JO45 JO46 JO47 JP38 JP39 JP40 JP41 JP42 JP43 JP44 JP45 JP46 JP47 JQ38 JQ39 JQ40 JQ41 JQ42 JQ43 JQ44 JQ45 JQ46 JQ47 JR38 JR39 JR40 JR41 JR42 JR43 JR44 JR45 JR46 JR47 JS38 JS39 JS40 JS41 JS42 JS43 JS44 JS45 JS46 JS47 JT38 JT39 JT40 JT41 JT42 JT43 JT44 JT45 JT46 JT47 JU38 JU39 JU40 JU41 JU42 JU43 JU44 JU45 JU46 JU47 JV38 JV39 JV40 JV41 JV42 JV43 JV44 JV45 JV46 JV47 JW38 JW39 JW40 JW41 JW42 JW43 JW44 JW45 JW46 JW47 JX38 JX39 JX40 JX41 JX42 JX43 JX44 JX45 JX46 JX47 JY38 JY39 JY40 JY41 JY42 JY43 JY44 JY45 JY46 JY47 JZ38 JZ39 JZ40 JZ41 JZ42 JZ43 JZ44 JZ45 JZ46 JZ47 KA38 KA39 KA40 KA41 KA42 KA43 KA44 KA45 KA46 KA47 KB38 KB39 KB40 KB41 KB42 KB43 KB44 KB45 KB46 KB47 KC38 KC39 KC40 KC41 KC42 KC43 KC44 KC45 KC46 KC47 KD38 KD39 KD40 KD41 KD42 KD43 KD44 KD45 KD46 KD47 KE38 KE39 KE40 KE41 KE42 KE43 KE44 KE45 KE46 KE47 KF38 KF39 KF40 KF41 KF42 KF43 KF44 KF45 KF46 KF47 KG38 KG39 KG40 KG41 KG42 KG43 KG44 KG45 KG46 KG47 KH38 KH39 KH40 KH41 KH42 KH43 KH44 KH45 KH46 KH47 KI38 KI39 KI40 KI41 KI42 KI43 KI44 KI45 KI46 KI47 KJ38 KJ39 KJ40 KJ41 KJ42 KJ43 KJ44 KJ45 KJ46 KJ47 KK38 KK39 KK40 KK41 KK42 KK43 KK44 KK45 KK46 KK47 KL38 KL39 KL40 KL41 KL42 KL43 KL44 KL45 KL46 KL47 KM38 KM39 KM40 KM41 KM42 KM43 KM44 KM45 KM46 KM47 KN38 KN39 KN40 KN41 KN42 KN43 KN44 KN45 KN46 KN47 KO38 KO39 KO40 KO41 KO42 KO43 KO44 KO45 KO46 KO47 KP38 KP39 KP40 KP41 KP42 KP43 KP44 KP45 KP46 KP47 KQ38 KQ39 KQ40 KQ41 KQ42 KQ43 KQ44 KQ45 KQ46 KQ47 KR38 KR39 KR40 KR41 KR42 KR43 KR44 KR45 KR46 KR47 KS38 KS39 KS40 KS41 KS42 KS43 KS44 KS45 KS46 KS47 KT38 KT39 KT40 KT41 KT42 KT43 KT44 KT45 KT46 KT47 KU38 KU39 KU40 KU41 KU42 KU43 KU44 KU45 KU46 KU47 KV38 KV39 KV40 KV41 KV42 KV43 KV44 KV45 KV46 KV47 KW38 KW39 KW40 KW41 KW42 KW43 KW44 KW45 KW46 KW47 KX38 KX39 KX40 KX41 KX42 KX43 KX44 KX45 KX46 KX47 KY38 KY39 KY40 KY41 KY42 KY43 KY44 KY45 KY46 KY47 KZ38 KZ39 KZ40 KZ41 KZ42 KZ43 KZ44 KZ45 KZ46 KZ47 LA38 LA39 LA40 LA41 LA42 LA43 LA44 LA45 LA46 LA47 LB38 LB39 LB40 LB41 LB42 LB43 LB44 LB45 LB46 LB47 LC38 LC39 LC40 LC41 LC42 LC43 LC44 LC45 LC46 LC47 LD38 LD39 LD40 LD41 LD42 LD43 LD44 LD45 LD46 LD47 LE38 LE39 LE40 LE41 LE42 LE43 LE44 LE45 LE46 LE47 LF38 LF39 LF40 LF41 LF42 LF43 LF44 LF45 LF46 LF47 LG38 LG39 LG40 LG41 LG42 LG43 LG44 LG45 LG46 LG47 LH38 LH39 LH40 LH41 LH42 LH43 LH44 LH45 LH46 LH47 LI38 LI39 LI40 LI41 LI42 LI43 LI44 LI45 LI46 LI47 LJ38 LJ39 LJ40 LJ41 LJ42 LJ43 LJ44 LJ45 LJ46 LJ47 LK38 LK39 LK40 LK41 LK42 LK43 LK44 LK45 LK46 LK47 LL38 LL39 LL40 LL41 LL42 LL43 LL44 LL45 LL46 LL47 LM38 LM39 LM40 LM41 LM42 LM43 LM44 LM45 LM46 LM47 LN38 LN39 LN40 LN41 LN42 LN43 LN44 LN45 LN46 LN47 LO38 LO39 LO40 LO41 LO42 LO43 LO44 LO45 LO46 LO47 LP38 LP39 LP40 LP41 LP42 LP43 LP44 LP45 LP46 LP47 LQ38 LQ39 LQ40 LQ41 LQ42 LQ43 LQ44 LQ45 LQ46 LQ47 LR38 LR39 LR40 LR41 LR42 LR43 LR44 LR45 LR46 LR47 LS38 LS39 LS40 LS41 LS42 LS43 LS44 LS45 LS46 LS47 LT38 LT39 LT40 LT41 LT42 LT43 LT44 LT45 LT46 LT47 LU38 LU39 LU40 LU41 LU42 LU43 LU44 LU45 LU46 LU47 LV38 LV39 LV40 LV41 LV42 LV43 LV44 LV45 LV46 LV47 LW38 LW39 LW40 LW41 LW42 LW43 LW44 LW45 LW46 LW47 LX38 LX39 LX40 LX41 LX42 LX43 LX44 LX45 LX46 LX47 LY38 LY39 LY40 LY41 LY42 LY43 LY44 LY45 LY46 LY47 LZ38 LZ39 LZ40 LZ41 LZ42 LZ43 LZ44 LZ45 LZ46 LZ47 MA38 MA39 MA40 MA41 MA42 MA43 MA44 MA45 MA46 MA47 MB38 MB39 MB40 MB41 MB42 MB43 MB44 MB45 MB46 MB47 MC38 MC39 MC40 MC41 MC42 MC43 MC44 MC45 MC46 MC47 MD38 MD39 MD40 MD41 MD42 MD43 MD44 MD45 MD46 MD47 ME38 ME39 ME40 ME41 ME42 ME43 ME44 ME45 ME46 ME47 MF38 MF39 MF40 MF41 MF42 MF43 MF44 MF45 MF46 MF47 MG38 MG39 MG40 MG41 MG42 MG43 MG44 MG45 MG46 MG47 MH38 MH39 MH40 MH41 MH42 MH43 MH44 MH45 MH46 MH47 MI38 MI39 MI40 MI41 MI42 MI43 MI44 MI45 MI46 MI47 MJ38 MJ39 MJ40 MJ41 MJ42 MJ43 MJ44 MJ45 MJ46 MJ47 MK38 MK39 MK40 MK41 MK42 MK43 MK44 MK45 MK46 MK47 ML38 ML39 ML40 ML41 ML42 ML43 ML44 ML45 ML46 ML47 MM38 MM39 MM40 MM41 MM42 MM43 MM44 MM45 MM46 MM47 MN38 MN39 MN40 MN41 MN42 MN43 MN44 MN45 MN46 MN47 MO38 MO39 MO40 MO41 MO42 MO43 MO44 MO45 MO46 MO47 MP38 MP39 MP40 MP41 MP42 MP43 MP44 MP45 MP46 MP47 MQ38 MQ39 MQ40 MQ41 MQ42 MQ43 MQ44 MQ45 MQ46 MQ47 MR38 MR39 MR40 MR41 MR42 MR43 MR44 MR45 MR46 MR47 MS38 MS39 MS40 MS41 MS42 MS43 MS44 MS45 MS46 MS47 MT38 MT39 MT40 MT41 MT42 MT43 MT44 MT45 MT46 MT47 MU38 MU39 MU40 MU41 MU42 MU43 MU44 MU45 MU46 MU47 MV38 MV39 MV40 MV41 MV42 MV43 MV44 MV45 MV46 MV47 MW38 MW39 MW40 MW41 MW42 MW43 MW44 MW45 MW46 MW47 MX38 MX39 MX40 MX41 MX42 MX43 MX44 MX45 MX46 MX47 MY38 MY39 MY40 MY41 MY42 MY43 MY44 MY45 MY46 MY47 MZ38 MZ39 MZ40 MZ41 MZ42 MZ43 MZ44 MZ45 MZ46 MZ47 NA38 NA39 NA40 NA41 NA42 NA43 NA44 NA45 NA46 NA47 NB38 NB39 NB40 NB41 NB42 NB43 NB44 NB45 NB46 NB47 NC38 NC39 NC40 NC41 NC42 NC43 NC44 NC45 NC46 NC47 ND38 ND39 ND40 ND41 ND42 ND43 ND44 ND45 ND46 ND47 NE38 NE39 NE40 NE41 NE42 NE43 NE44 NE45 NE46 NE47 NF38 NF39 NF40 NF41 NF42 NF43 NF44 NF45 NF46 NF47 NG38 NG39 NG40 NG41 NG42 NG43 NG44 NG45 NG46 NG47 NH38 NH39 NH40 NH41 NH42 NH43 NH44 NH45 NH46 NH47 NI38 NI39 NI40 NI41 NI42 NI43 NI44 NI45 NI46 NI47 NJ38 NJ39 NJ40 NJ41 NJ42 NJ43 NJ44 NJ45 NJ46 NJ47 NK38 NK39 NK40 NK41 NK42 NK43 NK44 NK45 NK46 NK47 NL38 NL39 NL40 NL41 NL42 NL43 NL44 NL45 NL46 NL47 NM38 NM39 NM40 NM41 NM42 NM43 NM44 NM45 NM46 NM47 NN38 NN39 NN40 NN41 NN42 NN43 NN44 NN45 NN46 NN47 NO38 NO39 NO40 NO41 NO42 NO43 NO44 NO45 NO46 NO47 NP38 NP39 NP40 NP41 NP42 NP43 NP44 NP45 NP46 NP47 NQ38 NQ39 NQ40 NQ41 NQ42 NQ43 NQ44 NQ45 NQ46 NQ47 NR38 NR39 NR40 NR41 NR42 NR43 NR44 NR45 NR46 NR47 NS38 NS39 NS40 NS41 NS42 NS43 NS44 NS45 NS46 NS47 NT38 NT39 NT40 NT41 NT42 NT43 NT44 NT45 NT46 NT47 NU38 NU39 NU40 NU41 NU42 NU43 NU44 NU45 NU46 NU47 NV38 NV39 NV40 NV41 NV42 NV43 NV44 NV45 NV46 NV47 NW38 NW39 NW40 NW41 NW42 NW43 NW44 NW45 NW46 NW47 NX38 NX39 NX40 NX41 NX42 NX43 NX44 NX45 NX46 NX47 NY38 NY39 NY40 NY41 NY42 NY43 NY44 NY45 NY46 NY47 NZ38 NZ39 NZ40 NZ41 NZ42 NZ43 NZ44 NZ45 NZ46 NZ47 OA38 OA39 OA40 OA41 OA42 OA43 OA44 OA45 OA46 OA47 OB38 OB39 OB40 OB41 OB42 OB43 OB44 OB45 OB46 OB47 OC38 OC39 OC40 OC41 OC42 OC43 OC44 OC45 OC46 OC47 OD38 OD39 OD40 OD41 OD42 OD43 OD44 OD45 OD46 OD47 OE38 OE39 OE40 OE41 OE42 OE43 OE44 OE45 OE46 OE47 OF38 OF39 OF40 OF41 OF42 OF43 OF44 OF45 OF46 OF47 OG38 OG39 OG40 OG41 OG42 OG43 OG44 OG45 OG46 OG47 OH38 OH39 OH40 OH41 OH42 OH43 OH44 OH45 OH46 OH47 OI38 OI39 OI40 OI41 OI42 OI43 OI44 OI45 OI46 OI47 OJ38 OJ39 OJ40 OJ41 OJ42 OJ43 OJ44 OJ45 OJ46 OJ47 OK38 OK39 OK40 OK41 OK42 OK43 OK44 OK45 OK46 OK47 OL38 OL39 OL40 OL41 OL42 OL43 OL44 OL45 OL46 OL47 OM38 OM39 OM40 OM41 OM42 OM43 OM44 OM45 OM46 OM47 ON38 ON39 ON40 ON41 ON42 ON43 ON44 ON45 ON46 ON47 OO38 OO39 OO40 OO41 OO42 OO43 OO44 OO45 OO46 OO47 OP38 OP39 OP40 OP41 OP42 OP43 OP44 OP45 OP46 OP47 OQ38 OQ39 OQ40 OQ41 OQ42 OQ43 OQ44 OQ45 OQ46 OQ47 OR38 OR39 OR40 OR41 OR42 OR43 OR44 OR45 OR46 OR47 OS38 OS39 OS40 OS41 OS42 OS43 OS44 OS45 OS46 OS47 OT38 OT39 OT40 OT41 OT42 OT43 OT44 OT45 OT46 OT47 OU38 OU39 OU40 OU41 OU42 OU43 OU44 OU45 OU46 OU47 OV38 OV39 OV40 OV41 OV42 OV43 OV44 OV45 OV46 OV47 OW38 OW39 OW40 OW41 OW42 OW43 OW44 OW45 OW46 OW47 OX38 OX39 OX40 OX41 OX42 OX43 OX44 OX45 OX46 OX47 OY38 OY39 OY40 OY41 OY42 OY43 OY44 OY45 OY46 OY47 OZ38 OZ39 OZ40 OZ41 OZ42 OZ43 OZ44 OZ45 OZ46 OZ47 PA38 PA39 PA40 PA41 PA42 PA43 PA44 PA45 PA46 PA47 PB38 PB39 PB40 PB41 PB42 PB43 PB44 PB45 PB46 PB47 PC38 PC39 PC40 PC41 PC42 PC43 PC44 PC45 PC46 PC47 PD38 PD39 PD40 PD41 PD42 PD43 PD44 PD45 PD46 PD47 PE38 PE39 PE40 PE41 PE42 PE43 PE44 PE45 PE46 PE47 PF38 PF39 PF40 PF41 PF42 PF43 PF44 PF45 PF46 PF47 PG38 PG39 PG40 PG41 PG42 PG43 PG44 PG45 PG46 PG47 PH38 PH39 PH40 PH41 PH42 PH43 PH44 PH45 PH46 PH47 PI38 PI39 PI40 PI41 PI42 PI43 PI44 PI45 PI46 PI47 PJ38 PJ39 PJ40 PJ41 PJ42 PJ43 PJ44 PJ45 PJ46 PJ47 PK38 PK39 PK40 PK41 PK42 PK43 PK44 PK45 PK46 PK47 PL38 PL39 PL40 PL41 PL42 PL43 PL44 PL45 PL46 PL47 PM38 PM39 PM40 PM41 PM42 PM43 PM44 PM45 PM46 PM47 PN38 PN39 PN40 PN41 PN42 PN43 PN44 PN45 PN46 PN47 PO38 PO39 PO40 PO41 PO42 PO43 PO44 PO45 PO46 PO47 PP38 PP39 PP40 PP41 PP42 PP43 PP44 PP45 PP46 PP47 PQ38 PQ39 PQ40 PQ41 PQ42 PQ43 PQ44 PQ45 PQ46 PQ47 PR38 PR39 PR40 PR41 PR42 PR43 PR44 PR45 PR46 PR47 PS38 PS39 PS40 PS41 PS42 PS43 PS44 PS45 PS46 PS47 PT38 PT39 PT40 PT41 PT42 PT43 PT44 PT45 PT46 PT47 PU38 PU39 PU40 PU41 PU42 PU43 PU44 PU45 PU46 PU47 PV38 PV39 PV40 PV41 PV42 PV43 PV44 PV45 PV46 PV47 PW38 PW39 PW40 PW41 PW42 PW43 PW44 PW45 PW46 PW47 PX38 PX39 PX40 PX41 PX42 PX43 PX44 PX45 PX46 PX47 PY38 PY39 PY40 PY41 PY42 PY43 PY44 PY45 PY46 PY47 PZ38 PZ39 PZ40 PZ41 PZ42 PZ43 PZ44 PZ45 PZ46 PZ47 QA38 QA39 QA40 QA41 QA42 QA43 QA44 QA45 QA46 QA47 QB38 QB39 QB40 QB41 QB42 QB43 QB44 QB45 QB46 QB47 QC38 QC39 QC40 QC41 QC42 QC43 QC44 QC45 QC46 QC47 QD38 QD39 QD40 QD41 QD42 QD43 QD44 QD45 QD46 QD47 QE38 QE39 QE40 QE41 QE42 QE43 QE44 QE45 QE46 QE47 QF38 QF39 QF40 QF41 QF42 QF43 QF44 QF45 QF46 QF47 QG38 QG39 QG40 QG41 QG42 QG43 QG44 QG45 QG46 QG47 QH38 QH39 QH40 QH41 QH42 QH43 QH44 QH45 QH46 QH47 QI38 QI39 QI40 QI41 QI42 QI43 QI44 QI45 QI46 QI47 QJ38 QJ39 QJ40 QJ41 QJ42 QJ43 QJ44 QJ45 QJ46 QJ47 QK38 QK39 QK40 QK41 QK42 QK43 QK44 QK45 QK46 QK47 QL38 QL39 QL40 QL41 QL42 QL43 QL44 QL45 QL46 QL47 QM38 QM39 QM40 QM41 QM42 QM43 QM44 QM45 QM46 QM47 QN38 QN39 QN40 QN41 QN42 QN43 QN44 QN45 QN46 QN47 QO38 QO39 QO40 QO41 QO42 QO43 QO44 QO45 QO46 QO47 QP38 QP39 QP40 QP41 QP42 QP43 QP44 QP45 QP46 QP47 QQ38 QQ39 QQ40 QQ41 QQ42 QQ43 QQ44 QQ45 QQ46 QQ47 QR38 QR39 QR40 QR41 QR42 QR43 QR44 QR45 QR46 QR47 QS38 QS39 QS40 QS41 QS42 QS43 QS44 QS45 QS46 QS47 QT38 QT39 QT40 QT41 QT42 QT43 QT44 QT45 QT46 QT47 QU38 QU39 QU40 QU41 QU42 QU43 QU44 QU45 QU46 QU47 QV38 QV39 QV40 QV41 QV42 QV43 QV44 QV45 QV46 QV47 QW38 QW39 QW40 QW41 QW42 QW43 QW44 QW45 QW46 QW47 QX38 QX39 QX40 QX41 QX42 QX43 QX44 QX45 QX46 QX47 QY38 QY39 QY40 QY41 QY42 QY43 QY44 QY45 QY46 QY47 QZ38 QZ39 QZ40 QZ41 QZ42 QZ43 QZ44 QZ45 QZ46 QZ47 RA38 RA39 RA40 RA41 RA42 RA43 RA44 RA45 RA46 RA47 RB38 RB39 RB40 RB41 RB42 RB43 RB44 RB45 RB46 RB47 RC38 RC39 RC40 RC41 RC42 RC43 RC44 RC45 RC46 RC47 RD38 RD39 RD40 RD41 RD42 RD43 RD44 RD45 RD46 RD47 RE38 RE39 RE40 RE41 RE42 RE43 RE44 RE45 RE46 RE47 RF38 RF39 RF40 RF41 RF42 RF43 RF44 RF45 RF46 RF47 RG38 RG39 RG40 RG41 RG42 RG43 RG44 RG45 RG46 RG47 RH38 RH39 RH40 RH41 RH42 RH43 RH44 RH45 RH46 RH47 RI38 RI39 RI40 RI41 RI42 RI43 RI44 RI45 RI46 RI47 RJ38 RJ39 RJ40 RJ41 RJ42 RJ43 RJ44 RJ45 RJ46 RJ47 RK38 RK39 RK40 RK41 RK42 RK43 RK44 RK45 RK46 RK47 RL38 RL39 RL40 RL41 RL42 RL43 RL44 RL45 RL46 RL47 RM38 RM39 RM40 RM41 RM42 RM43 RM44 RM45 RM46 RM47 RN38 RN39 RN40 RN41 RN42 RN43 RN44 RN45 RN46 RN47 RO38 RO39 RO40 RO41 RO42 RO43 RO44 RO45 RO46 RO47 RP38 RP39 RP40 RP41 RP42 RP43 RP44 RP45 RP46 RP47 RQ38 RQ39 RQ40 RQ41 RQ42 RQ43 RQ44 RQ45 RQ46 RQ47 RR38 RR39 RR40 RR41 RR42 RR43 RR44 RR45 RR46 RR47 RS38 RS39 RS40 RS41 RS42 RS43 RS44 RS45 RS46 RS47 RT38 RT39 RT40 RT41 RT42 RT43 RT44 RT45 RT46 RT47 RU38 RU39 RU40 RU41 RU42 RU43 RU44 RU45 RU46 RU47 RV38 RV39 RV40 RV41 RV42 RV43 RV44 RV45 RV46 RV47 RW38 RW39 RW40 RW41 RW42 RW43 RW44 RW45 RW46 RW47 RX38 RX39 RX40 RX41 RX42 RX43 RX44 RX45 RX46 RX47 RY38 RY39 RY40 RY41 RY42 RY43 RY44 RY45 RY46 RY47 RZ38 RZ39 RZ40 RZ41 RZ42 RZ43 RZ44 RZ45 RZ46 RZ47 SA38 SA39 SA40 SA41 SA42 SA43 SA44 SA45 SA46 SA47 SB38 SB39 SB40 SB41 SB42 SB43 SB44 SB45 SB46 SB47 SC38 SC39 SC40 SC41 SC42 SC43 SC44 SC45 SC46 SC47 SD38 SD39 SD40 SD41 SD42 SD43 SD44 SD45 SD46 SD47 SE38 SE39 SE40 SE41 SE42 SE43 SE44 SE45 SE46 SE47 SF38 SF39 SF40 SF41 SF42 SF43 SF44 SF45 SF46 SF47 SG38 SG39 SG40 SG41 SG42 SG43 SG44 SG45 SG46 SG47 SH38 SH39 SH40 SH41 SH42 SH43 SH44 SH45 SH46 SH47 SI38 SI39 SI40 SI41 SI42 SI43 SI44 SI45 SI46 SI47 SJ38 SJ39 SJ40 SJ41 SJ42 SJ43 SJ44 SJ45 SJ46 SJ47</xm:sqref>
+          <xm:sqref>E38:SJ47</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -27907,10 +27882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27925,27 +27900,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>73</v>
-      </c>
-      <c r="F1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -27954,7 +27929,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2">
         <v>299</v>
@@ -27965,16 +27940,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <v>99</v>
@@ -27985,16 +27960,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
         <v>80</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>99</v>
@@ -28005,16 +27980,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
         <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5">
         <v>99</v>
@@ -28025,7 +28000,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -28034,7 +28009,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6">
         <v>1500</v>
@@ -28045,16 +28020,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
         <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7">
         <v>4500</v>
@@ -28065,16 +28040,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
         <v>91</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8">
         <v>7500</v>
@@ -28085,16 +28060,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
         <v>94</v>
-      </c>
-      <c r="B9" t="s">
-        <v>95</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>15000</v>
@@ -28105,19 +28080,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E10">
-        <v>249</v>
+        <v>499</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -28125,19 +28100,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E11">
-        <v>599</v>
+        <v>1499</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -28145,19 +28120,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E12">
-        <v>999</v>
+        <v>2499</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -28165,19 +28140,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E13">
-        <v>1999</v>
+        <v>4999</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -28185,19 +28160,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E14">
-        <v>499</v>
+        <v>600</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -28205,19 +28180,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E15">
-        <v>1499</v>
+        <v>1800</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -28225,19 +28200,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E16">
-        <v>2499</v>
+        <v>3000</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -28245,7 +28220,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
         <v>117</v>
@@ -28257,7 +28232,7 @@
         <v>118</v>
       </c>
       <c r="E17">
-        <v>4999</v>
+        <v>6000</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -28265,7 +28240,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
         <v>119</v>
@@ -28277,7 +28252,7 @@
         <v>120</v>
       </c>
       <c r="E18">
-        <v>600</v>
+        <v>12000</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -28285,7 +28260,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
         <v>121</v>
@@ -28297,7 +28272,7 @@
         <v>122</v>
       </c>
       <c r="E19">
-        <v>1800</v>
+        <v>36000</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -28305,7 +28280,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
         <v>123</v>
@@ -28317,7 +28292,7 @@
         <v>124</v>
       </c>
       <c r="E20">
-        <v>3000</v>
+        <v>60000</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -28325,7 +28300,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
         <v>125</v>
@@ -28337,7 +28312,7 @@
         <v>126</v>
       </c>
       <c r="E21">
-        <v>6000</v>
+        <v>120000</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -28345,81 +28320,21 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E22">
-        <v>12000</v>
+        <v>129</v>
       </c>
       <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23">
-        <v>36000</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24">
-        <v>60000</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25">
-        <v>120000</v>
-      </c>
-      <c r="F25">
         <v>0</v>
       </c>
     </row>
